--- a/data/YearData.xlsx
+++ b/data/YearData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phillip\Prototype\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919D676-A5CD-4609-8B9E-60B6CE30E16B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4B89C-ABD9-4A88-B172-3915EAD5804A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{2EAF2FF9-AFE1-45CB-BA33-B71752CE3960}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{2EAF2FF9-AFE1-45CB-BA33-B71752CE3960}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Trimester" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -213,6 +213,42 @@
   </si>
   <si>
     <t>_Klasse B</t>
+  </si>
+  <si>
+    <t>A Kreis I</t>
+  </si>
+  <si>
+    <t>A Kreis II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Kreissegmente </t>
+  </si>
+  <si>
+    <t>B Kreissegmente II</t>
+  </si>
+  <si>
+    <t>C Reele Zahlen I</t>
+  </si>
+  <si>
+    <t>C Reele Zahlen II</t>
+  </si>
+  <si>
+    <t>A Differential I</t>
+  </si>
+  <si>
+    <t>A Differential II</t>
+  </si>
+  <si>
+    <t>A Differential III</t>
+  </si>
+  <si>
+    <t>B Integration I</t>
+  </si>
+  <si>
+    <t>B Integration II</t>
+  </si>
+  <si>
+    <t>B Integration III</t>
   </si>
 </sst>
 </file>
@@ -874,6 +910,16 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
@@ -885,23 +931,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -915,7 +944,14 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B9AA94-3B8E-43B7-9817-39F2EDDFC78E}">
   <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,20 +1279,20 @@
     <col min="39" max="41" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="37">
         <v>8</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1264,64 +1300,64 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37" t="s">
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="37" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="43"/>
       <c r="AL2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="44"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
     </row>
     <row r="3" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -1446,8 +1482,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3721,8 +3757,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="37" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5720,6 +5756,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -5727,12 +5769,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5742,10 +5778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B9669-0DA6-4842-9745-1E27C83D376F}">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5755,20 +5791,20 @@
     <col min="39" max="41" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="37">
         <v>8</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="37">
         <v>2</v>
       </c>
     </row>
@@ -5776,191 +5812,189 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
+      <c r="B2" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="43"/>
       <c r="AL2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="44"/>
-    </row>
-    <row r="3" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+    </row>
+    <row r="3" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6021,15 +6055,9 @@
       <c r="S5" s="16">
         <v>90</v>
       </c>
-      <c r="T5" s="13">
-        <v>3</v>
-      </c>
-      <c r="U5" s="14">
-        <v>4</v>
-      </c>
-      <c r="V5" s="15">
-        <v>0</v>
-      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="13"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="15"/>
@@ -6119,15 +6147,9 @@
       <c r="S6" s="23">
         <v>65</v>
       </c>
-      <c r="T6" s="21">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22">
-        <v>4</v>
-      </c>
-      <c r="V6" s="23">
-        <v>64</v>
-      </c>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="21"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="23"/>
@@ -6215,15 +6237,9 @@
       <c r="S7" s="23">
         <v>55</v>
       </c>
-      <c r="T7" s="21">
-        <v>3</v>
-      </c>
-      <c r="U7" s="22">
-        <v>1</v>
-      </c>
-      <c r="V7" s="23">
-        <v>86</v>
-      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="23"/>
       <c r="W7" s="21"/>
       <c r="X7" s="22"/>
       <c r="Y7" s="23"/>
@@ -6313,15 +6329,9 @@
       <c r="S8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="21">
-        <v>0</v>
-      </c>
-      <c r="U8" s="22">
-        <v>1</v>
-      </c>
-      <c r="V8" s="23">
-        <v>79</v>
-      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="21"/>
       <c r="X8" s="22"/>
       <c r="Y8" s="23"/>
@@ -6411,15 +6421,9 @@
       <c r="S9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V9" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="21"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="23"/>
@@ -6507,15 +6511,9 @@
       <c r="S10" s="23">
         <v>55</v>
       </c>
-      <c r="T10" s="21">
-        <v>3</v>
-      </c>
-      <c r="U10" s="22">
-        <v>3</v>
-      </c>
-      <c r="V10" s="23">
-        <v>86</v>
-      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="21"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="23"/>
@@ -6605,15 +6603,9 @@
       <c r="S11" s="23">
         <v>25</v>
       </c>
-      <c r="T11" s="21">
-        <v>3</v>
-      </c>
-      <c r="U11" s="22">
-        <v>1</v>
-      </c>
-      <c r="V11" s="23">
-        <v>64</v>
-      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="21"/>
       <c r="X11" s="22"/>
       <c r="Y11" s="23"/>
@@ -6703,15 +6695,9 @@
       <c r="S12" s="23">
         <v>70</v>
       </c>
-      <c r="T12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V12" s="23">
-        <v>100</v>
-      </c>
+      <c r="T12" s="21"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="21"/>
       <c r="X12" s="22"/>
       <c r="Y12" s="23"/>
@@ -6801,15 +6787,9 @@
       <c r="S13" s="23">
         <v>95</v>
       </c>
-      <c r="T13" s="21">
-        <v>3</v>
-      </c>
-      <c r="U13" s="22">
-        <v>4</v>
-      </c>
-      <c r="V13" s="23">
-        <v>100</v>
-      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="23"/>
       <c r="W13" s="21"/>
       <c r="X13" s="22"/>
       <c r="Y13" s="23"/>
@@ -6899,15 +6879,9 @@
       <c r="S14" s="23">
         <v>90</v>
       </c>
-      <c r="T14" s="21">
-        <v>3</v>
-      </c>
-      <c r="U14" s="22">
-        <v>4</v>
-      </c>
-      <c r="V14" s="23">
-        <v>93</v>
-      </c>
+      <c r="T14" s="21"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="23"/>
       <c r="W14" s="21"/>
       <c r="X14" s="22"/>
       <c r="Y14" s="23"/>
@@ -6997,15 +6971,9 @@
       <c r="S15" s="23">
         <v>80</v>
       </c>
-      <c r="T15" s="21">
-        <v>3</v>
-      </c>
-      <c r="U15" s="22">
-        <v>3</v>
-      </c>
-      <c r="V15" s="23">
-        <v>79</v>
-      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="23"/>
       <c r="W15" s="21"/>
       <c r="X15" s="22"/>
       <c r="Y15" s="23"/>
@@ -7095,15 +7063,9 @@
       <c r="S16" s="23">
         <v>80</v>
       </c>
-      <c r="T16" s="21">
-        <v>3</v>
-      </c>
-      <c r="U16" s="22">
-        <v>3</v>
-      </c>
-      <c r="V16" s="23">
-        <v>64</v>
-      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="21"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="23"/>
@@ -7193,15 +7155,9 @@
       <c r="S17" s="23">
         <v>60</v>
       </c>
-      <c r="T17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="23">
-        <v>43</v>
-      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
       <c r="W17" s="21"/>
       <c r="X17" s="22"/>
       <c r="Y17" s="23"/>
@@ -7291,15 +7247,9 @@
       <c r="S18" s="23">
         <v>75</v>
       </c>
-      <c r="T18" s="21">
-        <v>3</v>
-      </c>
-      <c r="U18" s="22">
-        <v>4</v>
-      </c>
-      <c r="V18" s="23">
-        <v>64</v>
-      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="23"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="23"/>
@@ -7389,15 +7339,9 @@
       <c r="S19" s="23">
         <v>85</v>
       </c>
-      <c r="T19" s="21">
-        <v>3</v>
-      </c>
-      <c r="U19" s="22">
-        <v>3</v>
-      </c>
-      <c r="V19" s="23">
-        <v>64</v>
-      </c>
+      <c r="T19" s="21"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="21"/>
       <c r="X19" s="22"/>
       <c r="Y19" s="23"/>
@@ -7487,15 +7431,9 @@
       <c r="S20" s="23">
         <v>75</v>
       </c>
-      <c r="T20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U20" s="22">
-        <v>4</v>
-      </c>
-      <c r="V20" s="23">
-        <v>86</v>
-      </c>
+      <c r="T20" s="21"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
       <c r="Y20" s="23"/>
@@ -7585,15 +7523,9 @@
       <c r="S21" s="23">
         <v>75</v>
       </c>
-      <c r="T21" s="21">
-        <v>1</v>
-      </c>
-      <c r="U21" s="22">
-        <v>1</v>
-      </c>
-      <c r="V21" s="23">
-        <v>57</v>
-      </c>
+      <c r="T21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
       <c r="Y21" s="23"/>
@@ -7683,15 +7615,9 @@
       <c r="S22" s="23">
         <v>65</v>
       </c>
-      <c r="T22" s="21">
-        <v>3</v>
-      </c>
-      <c r="U22" s="22">
-        <v>4</v>
-      </c>
-      <c r="V22" s="28">
-        <v>93</v>
-      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="28"/>
       <c r="W22" s="21"/>
       <c r="X22" s="22"/>
       <c r="Y22" s="23"/>
@@ -7781,15 +7707,9 @@
       <c r="S23" s="28">
         <v>90</v>
       </c>
-      <c r="T23" s="29">
-        <v>3</v>
-      </c>
-      <c r="U23" s="30">
-        <v>2</v>
-      </c>
-      <c r="V23" s="23">
-        <v>93</v>
-      </c>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="29"/>
       <c r="X23" s="30"/>
       <c r="Y23" s="28"/>
@@ -7879,15 +7799,9 @@
       <c r="S24" s="23">
         <v>60</v>
       </c>
-      <c r="T24" s="21">
-        <v>3</v>
-      </c>
-      <c r="U24" s="22">
-        <v>4</v>
-      </c>
-      <c r="V24" s="23">
-        <v>50</v>
-      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="21"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="23"/>
@@ -8233,299 +8147,254 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO32" s="11" t="s">
-        <v>12</v>
+    <row r="32" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15">
+        <v>81</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3</v>
+      </c>
+      <c r="F32" s="14">
+        <v>3</v>
+      </c>
+      <c r="G32" s="15">
+        <v>68</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3</v>
+      </c>
+      <c r="I32" s="14">
+        <v>3</v>
+      </c>
+      <c r="J32" s="15">
+        <v>90</v>
+      </c>
+      <c r="K32" s="13">
+        <v>3</v>
+      </c>
+      <c r="L32" s="14">
+        <v>4</v>
+      </c>
+      <c r="M32" s="15">
+        <v>80</v>
+      </c>
+      <c r="N32" s="13">
+        <v>3</v>
+      </c>
+      <c r="O32" s="14">
+        <v>4</v>
+      </c>
+      <c r="P32" s="15">
+        <v>68</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>3</v>
+      </c>
+      <c r="R32" s="14">
+        <v>4</v>
+      </c>
+      <c r="S32" s="16">
+        <v>90</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM32" s="17">
+        <f t="shared" ref="AM32:AO56" si="1">DP32</f>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="13">
-        <v>3</v>
-      </c>
-      <c r="C33" s="14">
-        <v>3</v>
-      </c>
-      <c r="D33" s="15">
-        <v>81</v>
-      </c>
-      <c r="E33" s="13">
-        <v>3</v>
-      </c>
-      <c r="F33" s="14">
-        <v>3</v>
-      </c>
-      <c r="G33" s="15">
-        <v>68</v>
-      </c>
-      <c r="H33" s="13">
-        <v>3</v>
-      </c>
-      <c r="I33" s="14">
-        <v>3</v>
-      </c>
-      <c r="J33" s="15">
-        <v>90</v>
-      </c>
-      <c r="K33" s="13">
-        <v>3</v>
-      </c>
-      <c r="L33" s="14">
+        <v>47</v>
+      </c>
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22">
+        <v>3</v>
+      </c>
+      <c r="D33" s="23">
+        <v>65</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="22">
+        <v>2</v>
+      </c>
+      <c r="G33" s="23">
+        <v>31</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <v>2</v>
+      </c>
+      <c r="J33" s="23">
+        <v>75</v>
+      </c>
+      <c r="K33" s="21">
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
         <v>4</v>
       </c>
-      <c r="M33" s="15">
-        <v>80</v>
-      </c>
-      <c r="N33" s="13">
-        <v>3</v>
-      </c>
-      <c r="O33" s="14">
+      <c r="M33" s="23">
+        <v>75</v>
+      </c>
+      <c r="N33" s="21">
+        <v>3</v>
+      </c>
+      <c r="O33" s="22">
         <v>4</v>
       </c>
-      <c r="P33" s="15">
-        <v>68</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>3</v>
-      </c>
-      <c r="R33" s="14">
+      <c r="P33" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>1</v>
+      </c>
+      <c r="R33" s="22">
         <v>4</v>
       </c>
-      <c r="S33" s="16">
-        <v>90</v>
-      </c>
-      <c r="T33" s="13">
-        <v>3</v>
-      </c>
-      <c r="U33" s="14">
-        <v>4</v>
-      </c>
-      <c r="V33" s="15">
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM33" s="17">
-        <f t="shared" ref="AM33:AO57" si="1">DP33</f>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO33" s="19">
+      <c r="S33" s="23">
+        <v>65</v>
+      </c>
+      <c r="T33" s="21"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>65</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0</v>
       </c>
       <c r="F34" s="22">
         <v>2</v>
       </c>
       <c r="G34" s="23">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="H34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="22">
         <v>2</v>
       </c>
       <c r="J34" s="23">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" s="23">
-        <v>75</v>
-      </c>
-      <c r="N34" s="21">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="O34" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34" s="23">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="21">
         <v>1</v>
       </c>
       <c r="R34" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S34" s="23">
-        <v>65</v>
-      </c>
-      <c r="T34" s="21">
-        <v>0</v>
-      </c>
-      <c r="U34" s="22">
-        <v>4</v>
-      </c>
-      <c r="V34" s="23">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="T34" s="21"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="23"/>
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="23"/>
@@ -8541,7 +8410,9 @@
       <c r="AI34" s="21"/>
       <c r="AJ34" s="22"/>
       <c r="AK34" s="23"/>
-      <c r="AL34" s="24"/>
+      <c r="AL34" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="AM34" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8557,16 +8428,16 @@
     </row>
     <row r="35" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="21">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C35" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="23">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E35" s="21">
         <v>0</v>
@@ -8575,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="23">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H35" s="21">
         <v>1</v>
@@ -8584,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="23">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K35" s="21">
         <v>1</v>
@@ -8593,35 +8464,29 @@
         <v>2</v>
       </c>
       <c r="M35" s="23">
-        <v>35</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="N35" s="21">
+        <v>0</v>
       </c>
       <c r="O35" s="22">
         <v>2</v>
       </c>
       <c r="P35" s="23">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>1</v>
-      </c>
-      <c r="R35" s="22">
-        <v>2</v>
-      </c>
-      <c r="S35" s="23">
-        <v>55</v>
-      </c>
-      <c r="T35" s="21">
-        <v>3</v>
-      </c>
-      <c r="U35" s="22">
-        <v>1</v>
-      </c>
-      <c r="V35" s="23">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T35" s="21"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="23"/>
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
@@ -8638,7 +8503,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="23"/>
       <c r="AL35" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM35" s="25">
         <f t="shared" si="1"/>
@@ -8655,52 +8520,52 @@
     </row>
     <row r="36" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1</v>
       </c>
       <c r="C36" s="22">
         <v>3</v>
       </c>
       <c r="D36" s="23">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E36" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="22">
         <v>2</v>
       </c>
       <c r="G36" s="23">
-        <v>88</v>
-      </c>
-      <c r="H36" s="21">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="I36" s="22">
-        <v>2</v>
-      </c>
-      <c r="J36" s="23">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="K36" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="22">
-        <v>2</v>
-      </c>
-      <c r="M36" s="23">
-        <v>65</v>
-      </c>
-      <c r="N36" s="21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="O36" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="23">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="21" t="s">
         <v>14</v>
@@ -8711,15 +8576,9 @@
       <c r="S36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T36" s="21">
-        <v>0</v>
-      </c>
-      <c r="U36" s="22">
-        <v>1</v>
-      </c>
-      <c r="V36" s="23">
-        <v>79</v>
-      </c>
+      <c r="T36" s="21"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="23"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
@@ -8735,9 +8594,7 @@
       <c r="AI36" s="21"/>
       <c r="AJ36" s="22"/>
       <c r="AK36" s="23"/>
-      <c r="AL36" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="AL36" s="24"/>
       <c r="AM36" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8753,10 +8610,10 @@
     </row>
     <row r="37" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="22">
         <v>3</v>
@@ -8764,29 +8621,29 @@
       <c r="D37" s="23">
         <v>68</v>
       </c>
-      <c r="E37" s="21">
-        <v>2</v>
+      <c r="E37" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="F37" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="23">
-        <v>44</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="H37" s="21">
+        <v>2</v>
       </c>
       <c r="I37" s="22">
-        <v>1</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="21">
-        <v>2</v>
-      </c>
-      <c r="L37" s="22">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J37" s="23">
+        <v>60</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="M37" s="23" t="s">
         <v>14</v>
@@ -8798,26 +8655,20 @@
         <v>1</v>
       </c>
       <c r="P37" s="23">
-        <v>37</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R37" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="S37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="T37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U37" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V37" s="23" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>1</v>
+      </c>
+      <c r="R37" s="22">
+        <v>3</v>
+      </c>
+      <c r="S37" s="23">
+        <v>55</v>
+      </c>
+      <c r="T37" s="21"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="23"/>
       <c r="W37" s="21"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
@@ -8833,7 +8684,9 @@
       <c r="AI37" s="21"/>
       <c r="AJ37" s="22"/>
       <c r="AK37" s="23"/>
-      <c r="AL37" s="24"/>
+      <c r="AL37" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="AM37" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8849,71 +8702,65 @@
     </row>
     <row r="38" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="22">
         <v>3</v>
       </c>
       <c r="D38" s="23">
-        <v>68</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1</v>
       </c>
       <c r="F38" s="22">
         <v>3</v>
       </c>
       <c r="G38" s="23">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H38" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="22">
         <v>3</v>
       </c>
       <c r="J38" s="23">
-        <v>60</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="K38" s="21">
+        <v>0</v>
+      </c>
+      <c r="L38" s="22">
+        <v>3</v>
+      </c>
+      <c r="M38" s="23">
+        <v>70</v>
+      </c>
+      <c r="N38" s="21">
+        <v>3</v>
       </c>
       <c r="O38" s="22">
         <v>1</v>
       </c>
       <c r="P38" s="23">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="22">
         <v>3</v>
       </c>
       <c r="S38" s="23">
-        <v>55</v>
-      </c>
-      <c r="T38" s="21">
-        <v>3</v>
-      </c>
-      <c r="U38" s="22">
-        <v>3</v>
-      </c>
-      <c r="V38" s="23">
-        <v>86</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="T38" s="21"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="23"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
@@ -8947,71 +8794,65 @@
     </row>
     <row r="39" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" s="22">
         <v>3</v>
       </c>
-      <c r="D39" s="23">
-        <v>81</v>
-      </c>
-      <c r="E39" s="21">
-        <v>1</v>
+      <c r="D39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="F39" s="22">
         <v>3</v>
       </c>
       <c r="G39" s="23">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H39" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="22">
         <v>3</v>
       </c>
       <c r="J39" s="23">
-        <v>55</v>
-      </c>
-      <c r="K39" s="21">
-        <v>0</v>
-      </c>
-      <c r="L39" s="22">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="M39" s="23">
+        <v>90</v>
+      </c>
+      <c r="N39" s="21">
+        <v>3</v>
+      </c>
+      <c r="O39" s="22">
+        <v>4</v>
+      </c>
+      <c r="P39" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>3</v>
+      </c>
+      <c r="R39" s="22">
+        <v>4</v>
+      </c>
+      <c r="S39" s="23">
         <v>70</v>
       </c>
-      <c r="N39" s="21">
-        <v>3</v>
-      </c>
-      <c r="O39" s="22">
-        <v>1</v>
-      </c>
-      <c r="P39" s="23">
-        <v>79</v>
-      </c>
-      <c r="Q39" s="21">
-        <v>0</v>
-      </c>
-      <c r="R39" s="22">
-        <v>3</v>
-      </c>
-      <c r="S39" s="23">
-        <v>25</v>
-      </c>
-      <c r="T39" s="21">
-        <v>3</v>
-      </c>
-      <c r="U39" s="22">
-        <v>1</v>
-      </c>
-      <c r="V39" s="23">
-        <v>64</v>
-      </c>
+      <c r="T39" s="21"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="23"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
@@ -9028,7 +8869,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="23"/>
       <c r="AL39" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AM39" s="25">
         <f t="shared" si="1"/>
@@ -9045,7 +8886,7 @@
     </row>
     <row r="40" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="21">
         <v>3</v>
@@ -9053,17 +8894,17 @@
       <c r="C40" s="22">
         <v>3</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>14</v>
+      <c r="D40" s="23">
+        <v>45</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3</v>
       </c>
       <c r="F40" s="22">
         <v>3</v>
       </c>
       <c r="G40" s="23">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H40" s="21">
         <v>3</v>
@@ -9072,25 +8913,25 @@
         <v>3</v>
       </c>
       <c r="J40" s="23">
-        <v>80</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="K40" s="21">
+        <v>3</v>
+      </c>
+      <c r="L40" s="22">
+        <v>3</v>
       </c>
       <c r="M40" s="23">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N40" s="21">
         <v>3</v>
       </c>
       <c r="O40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P40" s="23">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="Q40" s="21">
         <v>3</v>
@@ -9099,17 +8940,11 @@
         <v>4</v>
       </c>
       <c r="S40" s="23">
-        <v>70</v>
-      </c>
-      <c r="T40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V40" s="23">
-        <v>100</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="T40" s="21"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="23"/>
       <c r="W40" s="21"/>
       <c r="X40" s="22"/>
       <c r="Y40" s="23"/>
@@ -9126,7 +8961,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="23"/>
       <c r="AL40" s="24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AM40" s="25">
         <f t="shared" si="1"/>
@@ -9143,7 +8978,7 @@
     </row>
     <row r="41" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="21">
         <v>3</v>
@@ -9152,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="23">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E41" s="21">
         <v>3</v>
@@ -9161,7 +8996,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="23">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H41" s="21">
         <v>3</v>
@@ -9170,7 +9005,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="23">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K41" s="21">
         <v>3</v>
@@ -9179,7 +9014,7 @@
         <v>3</v>
       </c>
       <c r="M41" s="23">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N41" s="21">
         <v>3</v>
@@ -9188,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="P41" s="23">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="21">
         <v>3</v>
@@ -9197,17 +9032,11 @@
         <v>4</v>
       </c>
       <c r="S41" s="23">
-        <v>95</v>
-      </c>
-      <c r="T41" s="21">
-        <v>3</v>
-      </c>
-      <c r="U41" s="22">
-        <v>4</v>
-      </c>
-      <c r="V41" s="23">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="T41" s="21"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="23"/>
       <c r="W41" s="21"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
@@ -9224,7 +9053,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="23"/>
       <c r="AL41" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM41" s="25">
         <f t="shared" si="1"/>
@@ -9241,7 +9070,7 @@
     </row>
     <row r="42" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="21">
         <v>3</v>
@@ -9250,16 +9079,16 @@
         <v>3</v>
       </c>
       <c r="D42" s="23">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E42" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="23">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H42" s="21">
         <v>3</v>
@@ -9268,17 +9097,17 @@
         <v>3</v>
       </c>
       <c r="J42" s="23">
+        <v>65</v>
+      </c>
+      <c r="K42" s="21">
+        <v>3</v>
+      </c>
+      <c r="L42" s="22">
+        <v>2</v>
+      </c>
+      <c r="M42" s="23">
         <v>80</v>
       </c>
-      <c r="K42" s="21">
-        <v>3</v>
-      </c>
-      <c r="L42" s="22">
-        <v>3</v>
-      </c>
-      <c r="M42" s="23">
-        <v>65</v>
-      </c>
       <c r="N42" s="21">
         <v>3</v>
       </c>
@@ -9286,26 +9115,20 @@
         <v>3</v>
       </c>
       <c r="P42" s="23">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q42" s="21">
         <v>3</v>
       </c>
       <c r="R42" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" s="23">
-        <v>90</v>
-      </c>
-      <c r="T42" s="21">
-        <v>3</v>
-      </c>
-      <c r="U42" s="22">
-        <v>4</v>
-      </c>
-      <c r="V42" s="23">
-        <v>93</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="T42" s="21"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="23"/>
       <c r="W42" s="21"/>
       <c r="X42" s="22"/>
       <c r="Y42" s="23"/>
@@ -9322,7 +9145,7 @@
       <c r="AJ42" s="22"/>
       <c r="AK42" s="23"/>
       <c r="AL42" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM42" s="25">
         <f t="shared" si="1"/>
@@ -9339,7 +9162,7 @@
     </row>
     <row r="43" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="21">
         <v>3</v>
@@ -9348,16 +9171,16 @@
         <v>3</v>
       </c>
       <c r="D43" s="23">
-        <v>65</v>
-      </c>
-      <c r="E43" s="21">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="23">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="H43" s="21">
         <v>3</v>
@@ -9369,25 +9192,25 @@
         <v>65</v>
       </c>
       <c r="K43" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" s="23">
-        <v>80</v>
-      </c>
-      <c r="N43" s="21">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="O43" s="22">
         <v>3</v>
       </c>
       <c r="P43" s="23">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R43" s="22">
         <v>3</v>
@@ -9395,15 +9218,9 @@
       <c r="S43" s="23">
         <v>80</v>
       </c>
-      <c r="T43" s="21">
-        <v>3</v>
-      </c>
-      <c r="U43" s="22">
-        <v>3</v>
-      </c>
-      <c r="V43" s="23">
-        <v>79</v>
-      </c>
+      <c r="T43" s="21"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="23"/>
       <c r="W43" s="21"/>
       <c r="X43" s="22"/>
       <c r="Y43" s="23"/>
@@ -9420,7 +9237,7 @@
       <c r="AJ43" s="22"/>
       <c r="AK43" s="23"/>
       <c r="AL43" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM43" s="25">
         <f t="shared" si="1"/>
@@ -9437,7 +9254,7 @@
     </row>
     <row r="44" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="21">
         <v>3</v>
@@ -9445,8 +9262,8 @@
       <c r="C44" s="22">
         <v>3</v>
       </c>
-      <c r="D44" s="23">
-        <v>61</v>
+      <c r="D44" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>14</v>
@@ -9455,53 +9272,47 @@
         <v>3</v>
       </c>
       <c r="G44" s="23">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H44" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="23">
-        <v>65</v>
-      </c>
-      <c r="K44" s="21">
-        <v>2</v>
-      </c>
-      <c r="L44" s="22">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="M44" s="23">
-        <v>90</v>
-      </c>
-      <c r="N44" s="21" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="N44" s="21">
+        <v>1</v>
       </c>
       <c r="O44" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44" s="23">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="Q44" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S44" s="23">
-        <v>80</v>
-      </c>
-      <c r="T44" s="21">
-        <v>3</v>
-      </c>
-      <c r="U44" s="22">
-        <v>3</v>
-      </c>
-      <c r="V44" s="23">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="T44" s="21"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="23"/>
       <c r="W44" s="21"/>
       <c r="X44" s="22"/>
       <c r="Y44" s="23"/>
@@ -9518,7 +9329,7 @@
       <c r="AJ44" s="22"/>
       <c r="AK44" s="23"/>
       <c r="AL44" s="24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AM44" s="25">
         <f t="shared" si="1"/>
@@ -9535,7 +9346,7 @@
     </row>
     <row r="45" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="21">
         <v>3</v>
@@ -9543,63 +9354,57 @@
       <c r="C45" s="22">
         <v>3</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>14</v>
+      <c r="D45" s="23">
+        <v>71</v>
+      </c>
+      <c r="E45" s="21">
+        <v>3</v>
       </c>
       <c r="F45" s="22">
         <v>3</v>
       </c>
       <c r="G45" s="23">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H45" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="23">
-        <v>45</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="K45" s="21">
+        <v>3</v>
+      </c>
+      <c r="L45" s="22">
+        <v>4</v>
       </c>
       <c r="M45" s="23">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N45" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P45" s="23">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q45" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R45" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S45" s="23">
-        <v>60</v>
-      </c>
-      <c r="T45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U45" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V45" s="23">
-        <v>43</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="T45" s="21"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="23"/>
       <c r="W45" s="21"/>
       <c r="X45" s="22"/>
       <c r="Y45" s="23"/>
@@ -9615,9 +9420,7 @@
       <c r="AI45" s="21"/>
       <c r="AJ45" s="22"/>
       <c r="AK45" s="23"/>
-      <c r="AL45" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL45" s="24"/>
       <c r="AM45" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9632,72 +9435,28 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="21">
-        <v>3</v>
-      </c>
-      <c r="C46" s="22">
-        <v>3</v>
-      </c>
-      <c r="D46" s="23">
-        <v>71</v>
-      </c>
-      <c r="E46" s="21">
-        <v>3</v>
-      </c>
-      <c r="F46" s="22">
-        <v>3</v>
-      </c>
-      <c r="G46" s="23">
-        <v>50</v>
-      </c>
-      <c r="H46" s="21">
-        <v>3</v>
-      </c>
-      <c r="I46" s="22">
-        <v>3</v>
-      </c>
-      <c r="J46" s="23">
-        <v>80</v>
-      </c>
-      <c r="K46" s="21">
-        <v>3</v>
-      </c>
-      <c r="L46" s="22">
-        <v>4</v>
-      </c>
-      <c r="M46" s="23">
-        <v>60</v>
-      </c>
-      <c r="N46" s="21">
-        <v>3</v>
-      </c>
-      <c r="O46" s="22">
-        <v>4</v>
-      </c>
-      <c r="P46" s="23">
-        <v>68</v>
-      </c>
-      <c r="Q46" s="21">
-        <v>3</v>
-      </c>
-      <c r="R46" s="22">
-        <v>4</v>
-      </c>
-      <c r="S46" s="23">
-        <v>75</v>
-      </c>
-      <c r="T46" s="21">
-        <v>3</v>
-      </c>
-      <c r="U46" s="22">
-        <v>4</v>
-      </c>
-      <c r="V46" s="23">
-        <v>64</v>
-      </c>
+      <c r="A46" s="12"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="23"/>
       <c r="W46" s="21"/>
       <c r="X46" s="22"/>
       <c r="Y46" s="23"/>
@@ -9847,28 +9606,28 @@
       <c r="M49" s="23"/>
       <c r="N49" s="21"/>
       <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="22"/>
       <c r="S49" s="23"/>
       <c r="T49" s="21"/>
       <c r="U49" s="22"/>
-      <c r="V49" s="23"/>
+      <c r="V49" s="28"/>
       <c r="W49" s="21"/>
       <c r="X49" s="22"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="22"/>
-      <c r="AB49" s="23"/>
+      <c r="AB49" s="28"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="22"/>
       <c r="AE49" s="23"/>
       <c r="AF49" s="21"/>
       <c r="AG49" s="22"/>
-      <c r="AH49" s="23"/>
+      <c r="AH49" s="28"/>
       <c r="AI49" s="21"/>
       <c r="AJ49" s="22"/>
-      <c r="AK49" s="23"/>
+      <c r="AK49" s="28"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="25">
         <f t="shared" si="1"/>
@@ -9885,43 +9644,43 @@
     </row>
     <row r="50" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="23"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="28"/>
-      <c r="AL50" s="24"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="23"/>
+      <c r="AL50" s="31"/>
       <c r="AM50" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9935,45 +9694,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="22"/>
       <c r="P51" s="23"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="30"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="22"/>
       <c r="V51" s="23"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="30"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="22"/>
       <c r="AB51" s="23"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="30"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="22"/>
       <c r="AH51" s="23"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="30"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="22"/>
       <c r="AK51" s="23"/>
-      <c r="AL51" s="31"/>
+      <c r="AL51" s="24"/>
       <c r="AM51" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9988,7 +9747,7 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
       <c r="D52" s="23"/>
@@ -10040,7 +9799,9 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
+      <c r="A53" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
       <c r="D53" s="23"/>
@@ -10058,13 +9819,13 @@
       <c r="P53" s="23"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="23"/>
+      <c r="S53" s="24"/>
       <c r="T53" s="21"/>
       <c r="U53" s="22"/>
       <c r="V53" s="23"/>
       <c r="W53" s="21"/>
       <c r="X53" s="22"/>
-      <c r="Y53" s="23"/>
+      <c r="Y53" s="24"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="22"/>
       <c r="AB53" s="23"/>
@@ -10092,9 +9853,7 @@
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
       <c r="D54" s="23"/>
@@ -10249,107 +10008,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="23"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="24"/>
-      <c r="AM57" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AN57" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO57" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="35"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="34"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="35"/>
-      <c r="AM58" s="33">
-        <f>AVERAGE(AM33:AM57)</f>
-        <v>0</v>
-      </c>
-      <c r="AN58" s="34">
-        <f>AVERAGE(AN33:AN57)</f>
-        <v>0</v>
-      </c>
-      <c r="AO58" s="35">
-        <f>AVERAGE(AO33:AO57)</f>
+    <row r="57" spans="1:41" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="33"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="36"/>
+      <c r="AL57" s="35"/>
+      <c r="AM57" s="33">
+        <f>AVERAGE(AM32:AM56)</f>
+        <v>0</v>
+      </c>
+      <c r="AN57" s="34">
+        <f>AVERAGE(AN32:AN56)</f>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="35">
+        <f>AVERAGE(AO32:AO56)</f>
         <v>0</v>
       </c>
     </row>
@@ -10375,10 +10082,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E176CF-CAF3-4046-9BFD-87F9636BCD8D}">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10388,20 +10095,20 @@
     <col min="39" max="41" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="37">
         <v>8</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="37">
         <v>3</v>
       </c>
     </row>
@@ -10409,191 +10116,189 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
+      <c r="B2" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="43"/>
       <c r="AL2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="44"/>
-    </row>
-    <row r="3" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="40"/>
+    </row>
+    <row r="3" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10613,19 +10318,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="15">
+        <v>80</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14">
+        <v>4</v>
+      </c>
+      <c r="J5" s="15">
         <v>68</v>
-      </c>
-      <c r="H5" s="13">
-        <v>3</v>
-      </c>
-      <c r="I5" s="14">
-        <v>3</v>
-      </c>
-      <c r="J5" s="15">
-        <v>90</v>
       </c>
       <c r="K5" s="13">
         <v>3</v>
@@ -10633,8 +10338,8 @@
       <c r="L5" s="14">
         <v>4</v>
       </c>
-      <c r="M5" s="15">
-        <v>80</v>
+      <c r="M5" s="16">
+        <v>90</v>
       </c>
       <c r="N5" s="13">
         <v>3</v>
@@ -10654,15 +10359,9 @@
       <c r="S5" s="16">
         <v>90</v>
       </c>
-      <c r="T5" s="13">
-        <v>3</v>
-      </c>
-      <c r="U5" s="14">
-        <v>4</v>
-      </c>
-      <c r="V5" s="15">
-        <v>0</v>
-      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="13"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="15"/>
@@ -10707,32 +10406,32 @@
       <c r="D6" s="23">
         <v>65</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>14</v>
+      <c r="E6" s="21">
+        <v>0</v>
       </c>
       <c r="F6" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="23">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H6" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="23">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K6" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="22">
         <v>4</v>
       </c>
       <c r="M6" s="23">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N6" s="21">
         <v>3</v>
@@ -10752,15 +10451,9 @@
       <c r="S6" s="23">
         <v>65</v>
       </c>
-      <c r="T6" s="21">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22">
-        <v>4</v>
-      </c>
-      <c r="V6" s="23">
-        <v>64</v>
-      </c>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="21"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="23"/>
@@ -10804,22 +10497,22 @@
         <v>55</v>
       </c>
       <c r="E7" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="22">
         <v>2</v>
       </c>
       <c r="G7" s="23">
-        <v>63</v>
-      </c>
-      <c r="H7" s="21">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="I7" s="22">
         <v>2</v>
       </c>
       <c r="J7" s="23">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K7" s="21">
         <v>1</v>
@@ -10828,7 +10521,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="23">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>14</v>
@@ -10848,15 +10541,9 @@
       <c r="S7" s="23">
         <v>55</v>
       </c>
-      <c r="T7" s="21">
-        <v>3</v>
-      </c>
-      <c r="U7" s="22">
-        <v>1</v>
-      </c>
-      <c r="V7" s="23">
-        <v>86</v>
-      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="23"/>
       <c r="W7" s="21"/>
       <c r="X7" s="22"/>
       <c r="Y7" s="23"/>
@@ -10902,31 +10589,31 @@
         <v>61</v>
       </c>
       <c r="E8" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="22">
         <v>2</v>
       </c>
       <c r="G8" s="23">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H8" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="22">
         <v>2</v>
       </c>
       <c r="J8" s="23">
-        <v>40</v>
-      </c>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="22">
-        <v>2</v>
-      </c>
-      <c r="M8" s="23">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="N8" s="21">
         <v>0</v>
@@ -10946,15 +10633,9 @@
       <c r="S8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="21">
-        <v>0</v>
-      </c>
-      <c r="U8" s="22">
-        <v>1</v>
-      </c>
-      <c r="V8" s="23">
-        <v>79</v>
-      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="21"/>
       <c r="X8" s="22"/>
       <c r="Y8" s="23"/>
@@ -11003,10 +10684,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>2</v>
-      </c>
-      <c r="G9" s="23">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>14</v>
@@ -11014,14 +10695,14 @@
       <c r="I9" s="22">
         <v>1</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="21">
-        <v>2</v>
-      </c>
-      <c r="L9" s="22">
-        <v>1</v>
+      <c r="J9" s="23">
+        <v>37</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>14</v>
@@ -11044,15 +10725,9 @@
       <c r="S9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V9" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="21"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="23"/>
@@ -11098,29 +10773,29 @@
       <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="22">
-        <v>3</v>
-      </c>
-      <c r="G10" s="23">
-        <v>77</v>
-      </c>
-      <c r="H10" s="21">
-        <v>2</v>
+      <c r="F10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="I10" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="23">
-        <v>60</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="22">
+        <v>3</v>
+      </c>
+      <c r="M10" s="23">
+        <v>55</v>
       </c>
       <c r="N10" s="21" t="s">
         <v>14</v>
@@ -11140,15 +10815,9 @@
       <c r="S10" s="23">
         <v>55</v>
       </c>
-      <c r="T10" s="21">
-        <v>3</v>
-      </c>
-      <c r="U10" s="22">
-        <v>3</v>
-      </c>
-      <c r="V10" s="23">
-        <v>86</v>
-      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="21"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="23"/>
@@ -11194,22 +10863,22 @@
         <v>81</v>
       </c>
       <c r="E11" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="22">
         <v>3</v>
       </c>
       <c r="G11" s="23">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H11" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="23">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="K11" s="21">
         <v>0</v>
@@ -11218,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="23">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N11" s="21">
         <v>3</v>
@@ -11238,15 +10907,9 @@
       <c r="S11" s="23">
         <v>25</v>
       </c>
-      <c r="T11" s="21">
-        <v>3</v>
-      </c>
-      <c r="U11" s="22">
-        <v>1</v>
-      </c>
-      <c r="V11" s="23">
-        <v>64</v>
-      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="21"/>
       <c r="X11" s="22"/>
       <c r="Y11" s="23"/>
@@ -11294,29 +10957,29 @@
       <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="22">
-        <v>3</v>
+      <c r="F12" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="G12" s="23">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H12" s="21">
         <v>3</v>
       </c>
       <c r="I12" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="23">
-        <v>80</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="K12" s="21">
+        <v>3</v>
+      </c>
+      <c r="L12" s="22">
+        <v>4</v>
       </c>
       <c r="M12" s="23">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N12" s="21">
         <v>3</v>
@@ -11336,15 +10999,9 @@
       <c r="S12" s="23">
         <v>70</v>
       </c>
-      <c r="T12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V12" s="23">
-        <v>100</v>
-      </c>
+      <c r="T12" s="21"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="21"/>
       <c r="X12" s="22"/>
       <c r="Y12" s="23"/>
@@ -11396,7 +11053,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="23">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H13" s="21">
         <v>3</v>
@@ -11405,16 +11062,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="23">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K13" s="21">
         <v>3</v>
       </c>
       <c r="L13" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="23">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N13" s="21">
         <v>3</v>
@@ -11434,15 +11091,9 @@
       <c r="S13" s="23">
         <v>95</v>
       </c>
-      <c r="T13" s="21">
-        <v>3</v>
-      </c>
-      <c r="U13" s="22">
-        <v>4</v>
-      </c>
-      <c r="V13" s="23">
-        <v>100</v>
-      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="23"/>
       <c r="W13" s="21"/>
       <c r="X13" s="22"/>
       <c r="Y13" s="23"/>
@@ -11494,7 +11145,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="23">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14" s="21">
         <v>3</v>
@@ -11503,16 +11154,16 @@
         <v>3</v>
       </c>
       <c r="J14" s="23">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="21">
         <v>3</v>
       </c>
       <c r="L14" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="23">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N14" s="21">
         <v>3</v>
@@ -11532,15 +11183,9 @@
       <c r="S14" s="23">
         <v>90</v>
       </c>
-      <c r="T14" s="21">
-        <v>3</v>
-      </c>
-      <c r="U14" s="22">
-        <v>4</v>
-      </c>
-      <c r="V14" s="23">
-        <v>93</v>
-      </c>
+      <c r="T14" s="21"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="23"/>
       <c r="W14" s="21"/>
       <c r="X14" s="22"/>
       <c r="Y14" s="23"/>
@@ -11586,13 +11231,13 @@
         <v>65</v>
       </c>
       <c r="E15" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="22">
         <v>2</v>
       </c>
       <c r="G15" s="23">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" s="21">
         <v>3</v>
@@ -11601,13 +11246,13 @@
         <v>3</v>
       </c>
       <c r="J15" s="23">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K15" s="21">
         <v>3</v>
       </c>
       <c r="L15" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="23">
         <v>80</v>
@@ -11630,15 +11275,9 @@
       <c r="S15" s="23">
         <v>80</v>
       </c>
-      <c r="T15" s="21">
-        <v>3</v>
-      </c>
-      <c r="U15" s="22">
-        <v>3</v>
-      </c>
-      <c r="V15" s="23">
-        <v>79</v>
-      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="23"/>
       <c r="W15" s="21"/>
       <c r="X15" s="22"/>
       <c r="Y15" s="23"/>
@@ -11683,23 +11322,23 @@
       <c r="D16" s="23">
         <v>61</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>14</v>
+      <c r="E16" s="21">
+        <v>2</v>
       </c>
       <c r="F16" s="22">
         <v>3</v>
       </c>
       <c r="G16" s="23">
-        <v>68</v>
-      </c>
-      <c r="H16" s="21">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="I16" s="22">
         <v>3</v>
       </c>
       <c r="J16" s="23">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K16" s="21">
         <v>2</v>
@@ -11708,7 +11347,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="23">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>14</v>
@@ -11728,15 +11367,9 @@
       <c r="S16" s="23">
         <v>80</v>
       </c>
-      <c r="T16" s="21">
-        <v>3</v>
-      </c>
-      <c r="U16" s="22">
-        <v>3</v>
-      </c>
-      <c r="V16" s="23">
-        <v>64</v>
-      </c>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="21"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="23"/>
@@ -11782,31 +11415,31 @@
         <v>14</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="22">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="G17" s="23">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="23">
-        <v>45</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>19</v>
+        <v>58</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22">
+        <v>1</v>
       </c>
       <c r="M17" s="23">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N17" s="21">
         <v>1</v>
@@ -11826,15 +11459,9 @@
       <c r="S17" s="23">
         <v>60</v>
       </c>
-      <c r="T17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="23">
-        <v>43</v>
-      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
       <c r="W17" s="21"/>
       <c r="X17" s="22"/>
       <c r="Y17" s="23"/>
@@ -11883,19 +11510,19 @@
         <v>3</v>
       </c>
       <c r="F18" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H18" s="21">
         <v>3</v>
       </c>
       <c r="I18" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="23">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K18" s="21">
         <v>3</v>
@@ -11904,7 +11531,7 @@
         <v>4</v>
       </c>
       <c r="M18" s="23">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N18" s="21">
         <v>3</v>
@@ -11924,15 +11551,9 @@
       <c r="S18" s="23">
         <v>75</v>
       </c>
-      <c r="T18" s="21">
-        <v>3</v>
-      </c>
-      <c r="U18" s="22">
-        <v>4</v>
-      </c>
-      <c r="V18" s="23">
-        <v>64</v>
-      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="23"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="23"/>
@@ -11978,31 +11599,31 @@
         <v>61</v>
       </c>
       <c r="E19" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="23">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H19" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="22">
         <v>3</v>
       </c>
       <c r="J19" s="23">
+        <v>63</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="L19" s="22">
+        <v>3</v>
+      </c>
+      <c r="M19" s="23">
         <v>85</v>
-      </c>
-      <c r="K19" s="21">
-        <v>1</v>
-      </c>
-      <c r="L19" s="22">
-        <v>2</v>
-      </c>
-      <c r="M19" s="23">
-        <v>70</v>
       </c>
       <c r="N19" s="21">
         <v>2</v>
@@ -12022,15 +11643,9 @@
       <c r="S19" s="23">
         <v>85</v>
       </c>
-      <c r="T19" s="21">
-        <v>3</v>
-      </c>
-      <c r="U19" s="22">
-        <v>3</v>
-      </c>
-      <c r="V19" s="23">
-        <v>64</v>
-      </c>
+      <c r="T19" s="21"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="21"/>
       <c r="X19" s="22"/>
       <c r="Y19" s="23"/>
@@ -12076,31 +11691,31 @@
         <v>97</v>
       </c>
       <c r="E20" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="23">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="H20" s="21">
         <v>3</v>
       </c>
       <c r="I20" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="23">
-        <v>90</v>
-      </c>
-      <c r="K20" s="21">
-        <v>1</v>
-      </c>
-      <c r="L20" s="22">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="M20" s="23">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N20" s="21">
         <v>3</v>
@@ -12120,15 +11735,9 @@
       <c r="S20" s="23">
         <v>75</v>
       </c>
-      <c r="T20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U20" s="22">
-        <v>4</v>
-      </c>
-      <c r="V20" s="23">
-        <v>86</v>
-      </c>
+      <c r="T20" s="21"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
       <c r="W20" s="21"/>
       <c r="X20" s="22"/>
       <c r="Y20" s="23"/>
@@ -12174,31 +11783,31 @@
         <v>84</v>
       </c>
       <c r="E21" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="22">
         <v>2</v>
       </c>
       <c r="G21" s="23">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H21" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="22">
         <v>2</v>
       </c>
       <c r="J21" s="23">
+        <v>79</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <v>2</v>
+      </c>
+      <c r="M21" s="23">
         <v>75</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>2</v>
-      </c>
-      <c r="M21" s="23">
-        <v>30</v>
       </c>
       <c r="N21" s="21">
         <v>0</v>
@@ -12218,15 +11827,9 @@
       <c r="S21" s="23">
         <v>75</v>
       </c>
-      <c r="T21" s="21">
-        <v>1</v>
-      </c>
-      <c r="U21" s="22">
-        <v>1</v>
-      </c>
-      <c r="V21" s="23">
-        <v>57</v>
-      </c>
+      <c r="T21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
       <c r="Y21" s="23"/>
@@ -12272,31 +11875,31 @@
         <v>74</v>
       </c>
       <c r="E22" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="23">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H22" s="21">
         <v>3</v>
       </c>
       <c r="I22" s="22">
-        <v>3</v>
-      </c>
-      <c r="J22" s="23">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="J22" s="28">
+        <v>63</v>
       </c>
       <c r="K22" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" s="22">
         <v>4</v>
       </c>
       <c r="M22" s="23">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N22" s="21">
         <v>3</v>
@@ -12316,15 +11919,9 @@
       <c r="S22" s="23">
         <v>65</v>
       </c>
-      <c r="T22" s="21">
-        <v>3</v>
-      </c>
-      <c r="U22" s="22">
-        <v>4</v>
-      </c>
-      <c r="V22" s="28">
-        <v>93</v>
-      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="28"/>
       <c r="W22" s="21"/>
       <c r="X22" s="22"/>
       <c r="Y22" s="23"/>
@@ -12376,25 +11973,25 @@
         <v>2</v>
       </c>
       <c r="G23" s="28">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H23" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="30">
         <v>2</v>
       </c>
-      <c r="J23" s="28">
-        <v>50</v>
+      <c r="J23" s="23">
+        <v>63</v>
       </c>
       <c r="K23" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="30">
         <v>2</v>
       </c>
       <c r="M23" s="28">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N23" s="29">
         <v>2</v>
@@ -12414,15 +12011,9 @@
       <c r="S23" s="28">
         <v>90</v>
       </c>
-      <c r="T23" s="29">
-        <v>3</v>
-      </c>
-      <c r="U23" s="30">
-        <v>2</v>
-      </c>
-      <c r="V23" s="23">
-        <v>93</v>
-      </c>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="29"/>
       <c r="X23" s="30"/>
       <c r="Y23" s="28"/>
@@ -12474,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="23">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="H24" s="21">
         <v>3</v>
@@ -12483,16 +12074,16 @@
         <v>3</v>
       </c>
       <c r="J24" s="23">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K24" s="21">
         <v>3</v>
       </c>
       <c r="L24" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="23">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N24" s="21">
         <v>3</v>
@@ -12512,15 +12103,9 @@
       <c r="S24" s="23">
         <v>60</v>
       </c>
-      <c r="T24" s="21">
-        <v>3</v>
-      </c>
-      <c r="U24" s="22">
-        <v>4</v>
-      </c>
-      <c r="V24" s="23">
-        <v>50</v>
-      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="21"/>
       <c r="X24" s="22"/>
       <c r="Y24" s="23"/>
@@ -12866,299 +12451,254 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" s="48" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:41" s="37" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO32" s="11" t="s">
-        <v>12</v>
+    <row r="32" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15">
+        <v>90</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3</v>
+      </c>
+      <c r="F32" s="14">
+        <v>4</v>
+      </c>
+      <c r="G32" s="15">
+        <v>80</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3</v>
+      </c>
+      <c r="I32" s="14">
+        <v>4</v>
+      </c>
+      <c r="J32" s="15">
+        <v>68</v>
+      </c>
+      <c r="K32" s="13">
+        <v>3</v>
+      </c>
+      <c r="L32" s="14">
+        <v>4</v>
+      </c>
+      <c r="M32" s="16">
+        <v>90</v>
+      </c>
+      <c r="N32" s="13">
+        <v>3</v>
+      </c>
+      <c r="O32" s="14">
+        <v>4</v>
+      </c>
+      <c r="P32" s="15">
+        <v>68</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>3</v>
+      </c>
+      <c r="R32" s="14">
+        <v>4</v>
+      </c>
+      <c r="S32" s="16">
+        <v>90</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM32" s="17">
+        <f t="shared" ref="AM32:AO56" si="1">DP32</f>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="13">
-        <v>3</v>
-      </c>
-      <c r="C33" s="14">
-        <v>3</v>
-      </c>
-      <c r="D33" s="15">
-        <v>81</v>
-      </c>
-      <c r="E33" s="13">
-        <v>3</v>
-      </c>
-      <c r="F33" s="14">
-        <v>3</v>
-      </c>
-      <c r="G33" s="15">
-        <v>68</v>
-      </c>
-      <c r="H33" s="13">
-        <v>3</v>
-      </c>
-      <c r="I33" s="14">
-        <v>3</v>
-      </c>
-      <c r="J33" s="15">
-        <v>90</v>
-      </c>
-      <c r="K33" s="13">
-        <v>3</v>
-      </c>
-      <c r="L33" s="14">
+        <v>47</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0</v>
+      </c>
+      <c r="C33" s="22">
+        <v>2</v>
+      </c>
+      <c r="D33" s="23">
+        <v>75</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
         <v>4</v>
       </c>
-      <c r="M33" s="15">
-        <v>80</v>
-      </c>
-      <c r="N33" s="13">
-        <v>3</v>
-      </c>
-      <c r="O33" s="14">
+      <c r="G33" s="23">
+        <v>75</v>
+      </c>
+      <c r="H33" s="21">
+        <v>3</v>
+      </c>
+      <c r="I33" s="22">
         <v>4</v>
       </c>
-      <c r="P33" s="15">
-        <v>68</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>3</v>
-      </c>
-      <c r="R33" s="14">
+      <c r="J33" s="23">
+        <v>100</v>
+      </c>
+      <c r="K33" s="21">
+        <v>1</v>
+      </c>
+      <c r="L33" s="22">
         <v>4</v>
       </c>
-      <c r="S33" s="16">
-        <v>90</v>
-      </c>
-      <c r="T33" s="13">
-        <v>3</v>
-      </c>
-      <c r="U33" s="14">
+      <c r="M33" s="23">
+        <v>65</v>
+      </c>
+      <c r="N33" s="21">
+        <v>3</v>
+      </c>
+      <c r="O33" s="22">
         <v>4</v>
       </c>
-      <c r="V33" s="15">
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM33" s="17">
-        <f t="shared" ref="AM33:AO57" si="1">DP33</f>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO33" s="19">
+      <c r="P33" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>1</v>
+      </c>
+      <c r="R33" s="22">
+        <v>4</v>
+      </c>
+      <c r="S33" s="23">
+        <v>65</v>
+      </c>
+      <c r="T33" s="21"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="21">
         <v>1</v>
       </c>
       <c r="C34" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="23">
-        <v>65</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1</v>
       </c>
       <c r="F34" s="22">
         <v>2</v>
       </c>
       <c r="G34" s="23">
-        <v>31</v>
-      </c>
-      <c r="H34" s="21">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="I34" s="22">
         <v>2</v>
       </c>
       <c r="J34" s="23">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="K34" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" s="23">
-        <v>75</v>
-      </c>
-      <c r="N34" s="21">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="O34" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34" s="23">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="21">
         <v>1</v>
       </c>
       <c r="R34" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S34" s="23">
-        <v>65</v>
-      </c>
-      <c r="T34" s="21">
-        <v>0</v>
-      </c>
-      <c r="U34" s="22">
-        <v>4</v>
-      </c>
-      <c r="V34" s="23">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="T34" s="21"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="23"/>
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="23"/>
@@ -13174,7 +12714,9 @@
       <c r="AI34" s="21"/>
       <c r="AJ34" s="22"/>
       <c r="AK34" s="23"/>
-      <c r="AL34" s="24"/>
+      <c r="AL34" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="AM34" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13190,71 +12732,65 @@
     </row>
     <row r="35" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="23">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E35" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="22">
         <v>2</v>
       </c>
       <c r="G35" s="23">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H35" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="22">
         <v>2</v>
       </c>
       <c r="J35" s="23">
-        <v>0</v>
-      </c>
-      <c r="K35" s="21">
-        <v>1</v>
-      </c>
-      <c r="L35" s="22">
-        <v>2</v>
-      </c>
-      <c r="M35" s="23">
-        <v>35</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="21">
+        <v>0</v>
       </c>
       <c r="O35" s="22">
         <v>2</v>
       </c>
       <c r="P35" s="23">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>1</v>
-      </c>
-      <c r="R35" s="22">
-        <v>2</v>
-      </c>
-      <c r="S35" s="23">
-        <v>55</v>
-      </c>
-      <c r="T35" s="21">
-        <v>3</v>
-      </c>
-      <c r="U35" s="22">
-        <v>1</v>
-      </c>
-      <c r="V35" s="23">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T35" s="21"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="23"/>
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
@@ -13271,7 +12807,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="23"/>
       <c r="AL35" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM35" s="25">
         <f t="shared" si="1"/>
@@ -13288,52 +12824,52 @@
     </row>
     <row r="36" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="22">
-        <v>3</v>
-      </c>
-      <c r="D36" s="23">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="E36" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="22">
-        <v>2</v>
-      </c>
-      <c r="G36" s="23">
-        <v>88</v>
-      </c>
-      <c r="H36" s="21">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="I36" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="23">
-        <v>40</v>
-      </c>
-      <c r="K36" s="21">
-        <v>1</v>
-      </c>
-      <c r="L36" s="22">
-        <v>2</v>
-      </c>
-      <c r="M36" s="23">
-        <v>65</v>
-      </c>
-      <c r="N36" s="21">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="O36" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="23">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="21" t="s">
         <v>14</v>
@@ -13344,15 +12880,9 @@
       <c r="S36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="T36" s="21">
-        <v>0</v>
-      </c>
-      <c r="U36" s="22">
-        <v>1</v>
-      </c>
-      <c r="V36" s="23">
-        <v>79</v>
-      </c>
+      <c r="T36" s="21"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="23"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
@@ -13368,9 +12898,7 @@
       <c r="AI36" s="21"/>
       <c r="AJ36" s="22"/>
       <c r="AK36" s="23"/>
-      <c r="AL36" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="AL36" s="24"/>
       <c r="AM36" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13386,25 +12914,25 @@
     </row>
     <row r="37" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="22">
         <v>3</v>
       </c>
       <c r="D37" s="23">
-        <v>68</v>
-      </c>
-      <c r="E37" s="21">
-        <v>2</v>
-      </c>
-      <c r="F37" s="22">
-        <v>2</v>
-      </c>
-      <c r="G37" s="23">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>14</v>
@@ -13412,17 +12940,17 @@
       <c r="I37" s="22">
         <v>1</v>
       </c>
-      <c r="J37" s="23" t="s">
-        <v>14</v>
+      <c r="J37" s="23">
+        <v>26</v>
       </c>
       <c r="K37" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="22">
-        <v>1</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="M37" s="23">
+        <v>55</v>
       </c>
       <c r="N37" s="21" t="s">
         <v>14</v>
@@ -13431,26 +12959,20 @@
         <v>1</v>
       </c>
       <c r="P37" s="23">
-        <v>37</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R37" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="S37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="T37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U37" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V37" s="23" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>1</v>
+      </c>
+      <c r="R37" s="22">
+        <v>3</v>
+      </c>
+      <c r="S37" s="23">
+        <v>55</v>
+      </c>
+      <c r="T37" s="21"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="23"/>
       <c r="W37" s="21"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
@@ -13466,7 +12988,9 @@
       <c r="AI37" s="21"/>
       <c r="AJ37" s="22"/>
       <c r="AK37" s="23"/>
-      <c r="AL37" s="24"/>
+      <c r="AL37" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="AM37" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13482,71 +13006,65 @@
     </row>
     <row r="38" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" s="22">
         <v>3</v>
       </c>
       <c r="D38" s="23">
-        <v>68</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0</v>
       </c>
       <c r="F38" s="22">
         <v>3</v>
       </c>
       <c r="G38" s="23">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H38" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="23">
-        <v>60</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="K38" s="21">
+        <v>0</v>
+      </c>
+      <c r="L38" s="22">
+        <v>3</v>
+      </c>
+      <c r="M38" s="23">
+        <v>25</v>
+      </c>
+      <c r="N38" s="21">
+        <v>3</v>
       </c>
       <c r="O38" s="22">
         <v>1</v>
       </c>
       <c r="P38" s="23">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="22">
         <v>3</v>
       </c>
       <c r="S38" s="23">
-        <v>55</v>
-      </c>
-      <c r="T38" s="21">
-        <v>3</v>
-      </c>
-      <c r="U38" s="22">
-        <v>3</v>
-      </c>
-      <c r="V38" s="23">
-        <v>86</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="T38" s="21"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="23"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
@@ -13580,40 +13098,40 @@
     </row>
     <row r="39" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" s="22">
         <v>3</v>
       </c>
       <c r="D39" s="23">
-        <v>81</v>
-      </c>
-      <c r="E39" s="21">
-        <v>1</v>
-      </c>
-      <c r="F39" s="22">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="G39" s="23">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H39" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" s="23">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K39" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" s="23">
         <v>70</v>
@@ -13622,29 +13140,23 @@
         <v>3</v>
       </c>
       <c r="O39" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39" s="23">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R39" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39" s="23">
-        <v>25</v>
-      </c>
-      <c r="T39" s="21">
-        <v>3</v>
-      </c>
-      <c r="U39" s="22">
-        <v>1</v>
-      </c>
-      <c r="V39" s="23">
-        <v>64</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="T39" s="21"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="23"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
@@ -13661,7 +13173,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="23"/>
       <c r="AL39" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AM39" s="25">
         <f t="shared" si="1"/>
@@ -13678,7 +13190,7 @@
     </row>
     <row r="40" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="21">
         <v>3</v>
@@ -13686,17 +13198,17 @@
       <c r="C40" s="22">
         <v>3</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>14</v>
+      <c r="D40" s="23">
+        <v>50</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3</v>
       </c>
       <c r="F40" s="22">
         <v>3</v>
       </c>
       <c r="G40" s="23">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H40" s="21">
         <v>3</v>
@@ -13705,25 +13217,25 @@
         <v>3</v>
       </c>
       <c r="J40" s="23">
-        <v>80</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="K40" s="21">
+        <v>3</v>
+      </c>
+      <c r="L40" s="22">
+        <v>4</v>
       </c>
       <c r="M40" s="23">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N40" s="21">
         <v>3</v>
       </c>
       <c r="O40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P40" s="23">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="Q40" s="21">
         <v>3</v>
@@ -13732,17 +13244,11 @@
         <v>4</v>
       </c>
       <c r="S40" s="23">
-        <v>70</v>
-      </c>
-      <c r="T40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="V40" s="23">
-        <v>100</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="T40" s="21"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="23"/>
       <c r="W40" s="21"/>
       <c r="X40" s="22"/>
       <c r="Y40" s="23"/>
@@ -13759,7 +13265,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="23"/>
       <c r="AL40" s="24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AM40" s="25">
         <f t="shared" si="1"/>
@@ -13776,7 +13282,7 @@
     </row>
     <row r="41" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="21">
         <v>3</v>
@@ -13785,7 +13291,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="23">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E41" s="21">
         <v>3</v>
@@ -13794,7 +13300,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="23">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H41" s="21">
         <v>3</v>
@@ -13803,16 +13309,16 @@
         <v>3</v>
       </c>
       <c r="J41" s="23">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K41" s="21">
         <v>3</v>
       </c>
       <c r="L41" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" s="23">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N41" s="21">
         <v>3</v>
@@ -13821,7 +13327,7 @@
         <v>3</v>
       </c>
       <c r="P41" s="23">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="21">
         <v>3</v>
@@ -13830,17 +13336,11 @@
         <v>4</v>
       </c>
       <c r="S41" s="23">
-        <v>95</v>
-      </c>
-      <c r="T41" s="21">
-        <v>3</v>
-      </c>
-      <c r="U41" s="22">
-        <v>4</v>
-      </c>
-      <c r="V41" s="23">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="T41" s="21"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="23"/>
       <c r="W41" s="21"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
@@ -13857,7 +13357,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="23"/>
       <c r="AL41" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM41" s="25">
         <f t="shared" si="1"/>
@@ -13874,7 +13374,7 @@
     </row>
     <row r="42" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="21">
         <v>3</v>
@@ -13883,16 +13383,16 @@
         <v>3</v>
       </c>
       <c r="D42" s="23">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E42" s="21">
         <v>3</v>
       </c>
       <c r="F42" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="23">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H42" s="21">
         <v>3</v>
@@ -13901,17 +13401,17 @@
         <v>3</v>
       </c>
       <c r="J42" s="23">
+        <v>74</v>
+      </c>
+      <c r="K42" s="21">
+        <v>3</v>
+      </c>
+      <c r="L42" s="22">
+        <v>3</v>
+      </c>
+      <c r="M42" s="23">
         <v>80</v>
       </c>
-      <c r="K42" s="21">
-        <v>3</v>
-      </c>
-      <c r="L42" s="22">
-        <v>3</v>
-      </c>
-      <c r="M42" s="23">
-        <v>65</v>
-      </c>
       <c r="N42" s="21">
         <v>3</v>
       </c>
@@ -13919,26 +13419,20 @@
         <v>3</v>
       </c>
       <c r="P42" s="23">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q42" s="21">
         <v>3</v>
       </c>
       <c r="R42" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" s="23">
-        <v>90</v>
-      </c>
-      <c r="T42" s="21">
-        <v>3</v>
-      </c>
-      <c r="U42" s="22">
-        <v>4</v>
-      </c>
-      <c r="V42" s="23">
-        <v>93</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="T42" s="21"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="23"/>
       <c r="W42" s="21"/>
       <c r="X42" s="22"/>
       <c r="Y42" s="23"/>
@@ -13955,7 +13449,7 @@
       <c r="AJ42" s="22"/>
       <c r="AK42" s="23"/>
       <c r="AL42" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM42" s="25">
         <f t="shared" si="1"/>
@@ -13972,7 +13466,7 @@
     </row>
     <row r="43" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="21">
         <v>3</v>
@@ -13987,40 +13481,40 @@
         <v>2</v>
       </c>
       <c r="F43" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="23">
-        <v>88</v>
-      </c>
-      <c r="H43" s="21">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="I43" s="22">
         <v>3</v>
       </c>
       <c r="J43" s="23">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K43" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" s="23">
         <v>80</v>
       </c>
-      <c r="N43" s="21">
-        <v>3</v>
+      <c r="N43" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="O43" s="22">
         <v>3</v>
       </c>
       <c r="P43" s="23">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R43" s="22">
         <v>3</v>
@@ -14028,15 +13522,9 @@
       <c r="S43" s="23">
         <v>80</v>
       </c>
-      <c r="T43" s="21">
-        <v>3</v>
-      </c>
-      <c r="U43" s="22">
-        <v>3</v>
-      </c>
-      <c r="V43" s="23">
-        <v>79</v>
-      </c>
+      <c r="T43" s="21"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="23"/>
       <c r="W43" s="21"/>
       <c r="X43" s="22"/>
       <c r="Y43" s="23"/>
@@ -14053,7 +13541,7 @@
       <c r="AJ43" s="22"/>
       <c r="AK43" s="23"/>
       <c r="AL43" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM43" s="25">
         <f t="shared" si="1"/>
@@ -14070,71 +13558,65 @@
     </row>
     <row r="44" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="23">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="22">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="G44" s="23">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H44" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" s="23">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K44" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44" s="23">
-        <v>90</v>
-      </c>
-      <c r="N44" s="21" t="s">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="N44" s="21">
+        <v>1</v>
       </c>
       <c r="O44" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44" s="23">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="Q44" s="21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S44" s="23">
-        <v>80</v>
-      </c>
-      <c r="T44" s="21">
-        <v>3</v>
-      </c>
-      <c r="U44" s="22">
-        <v>3</v>
-      </c>
-      <c r="V44" s="23">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="T44" s="21"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="23"/>
       <c r="W44" s="21"/>
       <c r="X44" s="22"/>
       <c r="Y44" s="23"/>
@@ -14151,7 +13633,7 @@
       <c r="AJ44" s="22"/>
       <c r="AK44" s="23"/>
       <c r="AL44" s="24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AM44" s="25">
         <f t="shared" si="1"/>
@@ -14168,7 +13650,7 @@
     </row>
     <row r="45" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="21">
         <v>3</v>
@@ -14176,63 +13658,57 @@
       <c r="C45" s="22">
         <v>3</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>14</v>
+      <c r="D45" s="23">
+        <v>80</v>
+      </c>
+      <c r="E45" s="21">
+        <v>3</v>
       </c>
       <c r="F45" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="23">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H45" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" s="23">
-        <v>45</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="K45" s="21">
+        <v>3</v>
+      </c>
+      <c r="L45" s="22">
+        <v>4</v>
       </c>
       <c r="M45" s="23">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N45" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P45" s="23">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q45" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R45" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S45" s="23">
-        <v>60</v>
-      </c>
-      <c r="T45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U45" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V45" s="23">
-        <v>43</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="T45" s="21"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="23"/>
       <c r="W45" s="21"/>
       <c r="X45" s="22"/>
       <c r="Y45" s="23"/>
@@ -14248,9 +13724,7 @@
       <c r="AI45" s="21"/>
       <c r="AJ45" s="22"/>
       <c r="AK45" s="23"/>
-      <c r="AL45" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL45" s="24"/>
       <c r="AM45" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14265,72 +13739,28 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="21">
-        <v>3</v>
-      </c>
-      <c r="C46" s="22">
-        <v>3</v>
-      </c>
-      <c r="D46" s="23">
-        <v>71</v>
-      </c>
-      <c r="E46" s="21">
-        <v>3</v>
-      </c>
-      <c r="F46" s="22">
-        <v>3</v>
-      </c>
-      <c r="G46" s="23">
-        <v>50</v>
-      </c>
-      <c r="H46" s="21">
-        <v>3</v>
-      </c>
-      <c r="I46" s="22">
-        <v>3</v>
-      </c>
-      <c r="J46" s="23">
-        <v>80</v>
-      </c>
-      <c r="K46" s="21">
-        <v>3</v>
-      </c>
-      <c r="L46" s="22">
-        <v>4</v>
-      </c>
-      <c r="M46" s="23">
-        <v>60</v>
-      </c>
-      <c r="N46" s="21">
-        <v>3</v>
-      </c>
-      <c r="O46" s="22">
-        <v>4</v>
-      </c>
-      <c r="P46" s="23">
-        <v>68</v>
-      </c>
-      <c r="Q46" s="21">
-        <v>3</v>
-      </c>
-      <c r="R46" s="22">
-        <v>4</v>
-      </c>
-      <c r="S46" s="23">
-        <v>75</v>
-      </c>
-      <c r="T46" s="21">
-        <v>3</v>
-      </c>
-      <c r="U46" s="22">
-        <v>4</v>
-      </c>
-      <c r="V46" s="23">
-        <v>64</v>
-      </c>
+      <c r="A46" s="12"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="23"/>
       <c r="W46" s="21"/>
       <c r="X46" s="22"/>
       <c r="Y46" s="23"/>
@@ -14480,28 +13910,28 @@
       <c r="M49" s="23"/>
       <c r="N49" s="21"/>
       <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="22"/>
       <c r="S49" s="23"/>
       <c r="T49" s="21"/>
       <c r="U49" s="22"/>
-      <c r="V49" s="23"/>
+      <c r="V49" s="28"/>
       <c r="W49" s="21"/>
       <c r="X49" s="22"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="22"/>
-      <c r="AB49" s="23"/>
+      <c r="AB49" s="28"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="22"/>
       <c r="AE49" s="23"/>
       <c r="AF49" s="21"/>
       <c r="AG49" s="22"/>
-      <c r="AH49" s="23"/>
+      <c r="AH49" s="28"/>
       <c r="AI49" s="21"/>
       <c r="AJ49" s="22"/>
-      <c r="AK49" s="23"/>
+      <c r="AK49" s="28"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="25">
         <f t="shared" si="1"/>
@@ -14518,43 +13948,43 @@
     </row>
     <row r="50" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="23"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="28"/>
-      <c r="AL50" s="24"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="23"/>
+      <c r="AL50" s="31"/>
       <c r="AM50" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14568,45 +13998,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="22"/>
       <c r="P51" s="23"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="30"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="22"/>
       <c r="V51" s="23"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="30"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="22"/>
       <c r="AB51" s="23"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="30"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="22"/>
       <c r="AH51" s="23"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="30"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="22"/>
       <c r="AK51" s="23"/>
-      <c r="AL51" s="31"/>
+      <c r="AL51" s="24"/>
       <c r="AM51" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14621,7 +14051,7 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
       <c r="D52" s="23"/>
@@ -14673,7 +14103,9 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
+      <c r="A53" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
       <c r="D53" s="23"/>
@@ -14691,13 +14123,13 @@
       <c r="P53" s="23"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="22"/>
-      <c r="S53" s="23"/>
+      <c r="S53" s="24"/>
       <c r="T53" s="21"/>
       <c r="U53" s="22"/>
       <c r="V53" s="23"/>
       <c r="W53" s="21"/>
       <c r="X53" s="22"/>
-      <c r="Y53" s="23"/>
+      <c r="Y53" s="24"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="22"/>
       <c r="AB53" s="23"/>
@@ -14725,9 +14157,7 @@
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
       <c r="D54" s="23"/>
@@ -14882,107 +14312,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="23"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="24"/>
-      <c r="AM57" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AN57" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO57" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="35"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="34"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="35"/>
-      <c r="AM58" s="33">
-        <f>AVERAGE(AM33:AM57)</f>
-        <v>0</v>
-      </c>
-      <c r="AN58" s="34">
-        <f>AVERAGE(AN33:AN57)</f>
-        <v>0</v>
-      </c>
-      <c r="AO58" s="35">
-        <f>AVERAGE(AO33:AO57)</f>
+    <row r="57" spans="1:41" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="33"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="36"/>
+      <c r="AL57" s="35"/>
+      <c r="AM57" s="33">
+        <f>AVERAGE(AM32:AM56)</f>
+        <v>0</v>
+      </c>
+      <c r="AN57" s="34">
+        <f>AVERAGE(AN32:AN56)</f>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="35">
+        <f>AVERAGE(AO32:AO56)</f>
         <v>0</v>
       </c>
     </row>

--- a/data/YearData.xlsx
+++ b/data/YearData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phillip\Prototype\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Damsy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4B89C-ABD9-4A88-B172-3915EAD5804A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759F6A1-5296-48DF-9115-B1B46D3530E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{2EAF2FF9-AFE1-45CB-BA33-B71752CE3960}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2EAF2FF9-AFE1-45CB-BA33-B71752CE3960}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Trimester" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>B Integration III</t>
+  </si>
+  <si>
+    <t>Vereinbarungen</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1281,7 @@
   <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="AI2" sqref="AI2:AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1359,9 @@
       <c r="AF2" s="41"/>
       <c r="AG2" s="42"/>
       <c r="AH2" s="43"/>
-      <c r="AI2" s="41"/>
+      <c r="AI2" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="2" t="s">
@@ -1566,9 +1580,15 @@
       <c r="AF5" s="13"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="15"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="15"/>
+      <c r="AI5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1664,9 +1684,15 @@
       <c r="AF6" s="21"/>
       <c r="AG6" s="22"/>
       <c r="AH6" s="23"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="23"/>
+      <c r="AI6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL6" s="24"/>
       <c r="AM6" s="25">
         <f t="shared" si="0"/>
@@ -1760,9 +1786,15 @@
       <c r="AF7" s="21"/>
       <c r="AG7" s="22"/>
       <c r="AH7" s="23"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="23"/>
+      <c r="AI7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL7" s="24" t="s">
         <v>15</v>
       </c>
@@ -1858,9 +1890,15 @@
       <c r="AF8" s="21"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="23"/>
+      <c r="AI8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL8" s="24" t="s">
         <v>16</v>
       </c>
@@ -1956,9 +1994,15 @@
       <c r="AF9" s="21"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="23"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="23"/>
+      <c r="AI9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL9" s="24"/>
       <c r="AM9" s="25">
         <f t="shared" si="0"/>
@@ -2052,9 +2096,15 @@
       <c r="AF10" s="21"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="23"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="23"/>
+      <c r="AI10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL10" s="24" t="s">
         <v>16</v>
       </c>
@@ -2150,9 +2200,15 @@
       <c r="AF11" s="21"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="23"/>
+      <c r="AI11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL11" s="24" t="s">
         <v>16</v>
       </c>
@@ -2248,9 +2304,15 @@
       <c r="AF12" s="21"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="23"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="23"/>
+      <c r="AI12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK12" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL12" s="24" t="s">
         <v>13</v>
       </c>
@@ -2346,9 +2408,15 @@
       <c r="AF13" s="21"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="23"/>
+      <c r="AI13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL13" s="24" t="s">
         <v>17</v>
       </c>
@@ -2444,9 +2512,15 @@
       <c r="AF14" s="21"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
+      <c r="AI14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL14" s="24" t="s">
         <v>16</v>
       </c>
@@ -2542,9 +2616,15 @@
       <c r="AF15" s="21"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="23"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="23"/>
+      <c r="AI15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK15" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL15" s="24" t="s">
         <v>17</v>
       </c>
@@ -2640,9 +2720,15 @@
       <c r="AF16" s="21"/>
       <c r="AG16" s="22"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="23"/>
+      <c r="AI16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL16" s="24" t="s">
         <v>18</v>
       </c>
@@ -2738,9 +2824,15 @@
       <c r="AF17" s="21"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="23"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="23"/>
+      <c r="AI17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK17" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL17" s="24" t="s">
         <v>15</v>
       </c>
@@ -2836,9 +2928,15 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="23"/>
+      <c r="AI18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL18" s="24" t="s">
         <v>17</v>
       </c>
@@ -2934,9 +3032,15 @@
       <c r="AF19" s="21"/>
       <c r="AG19" s="22"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="23"/>
+      <c r="AI19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL19" s="24" t="s">
         <v>16</v>
       </c>
@@ -3032,9 +3136,15 @@
       <c r="AF20" s="21"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="23"/>
+      <c r="AI20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL20" s="24" t="s">
         <v>20</v>
       </c>
@@ -3130,9 +3240,15 @@
       <c r="AF21" s="21"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="23"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="23"/>
+      <c r="AI21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK21" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL21" s="24" t="s">
         <v>21</v>
       </c>
@@ -3228,9 +3344,15 @@
       <c r="AF22" s="21"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="28"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="28"/>
+      <c r="AI22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK22" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL22" s="24" t="s">
         <v>16</v>
       </c>
@@ -3326,9 +3448,15 @@
       <c r="AF23" s="29"/>
       <c r="AG23" s="30"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="23"/>
+      <c r="AI23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK23" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL23" s="31" t="s">
         <v>17</v>
       </c>
@@ -3424,9 +3552,15 @@
       <c r="AF24" s="21"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="23"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="23"/>
+      <c r="AI24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK24" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL24" s="24" t="s">
         <v>17</v>
       </c>
@@ -5781,7 +5915,7 @@
   <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="AI2" sqref="AI2:AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5857,7 +5991,9 @@
       <c r="AF2" s="41"/>
       <c r="AG2" s="42"/>
       <c r="AH2" s="43"/>
-      <c r="AI2" s="41"/>
+      <c r="AI2" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="2" t="s">
@@ -6070,9 +6206,15 @@
       <c r="AF5" s="13"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="15"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="15"/>
+      <c r="AI5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL5" s="16" t="s">
         <v>13</v>
       </c>
@@ -6162,9 +6304,15 @@
       <c r="AF6" s="21"/>
       <c r="AG6" s="22"/>
       <c r="AH6" s="23"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="23"/>
+      <c r="AI6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL6" s="24"/>
       <c r="AM6" s="25">
         <f t="shared" si="0"/>
@@ -6252,9 +6400,15 @@
       <c r="AF7" s="21"/>
       <c r="AG7" s="22"/>
       <c r="AH7" s="23"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="23"/>
+      <c r="AI7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL7" s="24" t="s">
         <v>15</v>
       </c>
@@ -6344,9 +6498,15 @@
       <c r="AF8" s="21"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="23"/>
+      <c r="AI8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL8" s="24" t="s">
         <v>16</v>
       </c>
@@ -6436,9 +6596,15 @@
       <c r="AF9" s="21"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="23"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="23"/>
+      <c r="AI9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL9" s="24"/>
       <c r="AM9" s="25">
         <f t="shared" si="0"/>
@@ -6526,9 +6692,15 @@
       <c r="AF10" s="21"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="23"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="23"/>
+      <c r="AI10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL10" s="24" t="s">
         <v>16</v>
       </c>
@@ -6618,9 +6790,15 @@
       <c r="AF11" s="21"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="23"/>
+      <c r="AI11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL11" s="24" t="s">
         <v>16</v>
       </c>
@@ -6710,9 +6888,15 @@
       <c r="AF12" s="21"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="23"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="23"/>
+      <c r="AI12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK12" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL12" s="24" t="s">
         <v>13</v>
       </c>
@@ -6802,9 +6986,15 @@
       <c r="AF13" s="21"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="23"/>
+      <c r="AI13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL13" s="24" t="s">
         <v>17</v>
       </c>
@@ -6894,9 +7084,15 @@
       <c r="AF14" s="21"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
+      <c r="AI14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL14" s="24" t="s">
         <v>16</v>
       </c>
@@ -6986,9 +7182,15 @@
       <c r="AF15" s="21"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="23"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="23"/>
+      <c r="AI15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK15" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL15" s="24" t="s">
         <v>17</v>
       </c>
@@ -7078,9 +7280,15 @@
       <c r="AF16" s="21"/>
       <c r="AG16" s="22"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="23"/>
+      <c r="AI16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL16" s="24" t="s">
         <v>18</v>
       </c>
@@ -7170,9 +7378,15 @@
       <c r="AF17" s="21"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="23"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="23"/>
+      <c r="AI17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK17" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL17" s="24" t="s">
         <v>15</v>
       </c>
@@ -7262,9 +7476,15 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="23"/>
+      <c r="AI18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL18" s="24" t="s">
         <v>17</v>
       </c>
@@ -7354,9 +7574,15 @@
       <c r="AF19" s="21"/>
       <c r="AG19" s="22"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="23"/>
+      <c r="AI19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL19" s="24" t="s">
         <v>16</v>
       </c>
@@ -7446,9 +7672,15 @@
       <c r="AF20" s="21"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="23"/>
+      <c r="AI20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL20" s="24" t="s">
         <v>20</v>
       </c>
@@ -7538,9 +7770,15 @@
       <c r="AF21" s="21"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="23"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="23"/>
+      <c r="AI21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK21" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL21" s="24" t="s">
         <v>21</v>
       </c>
@@ -7630,9 +7868,15 @@
       <c r="AF22" s="21"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="28"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="28"/>
+      <c r="AI22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK22" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL22" s="24" t="s">
         <v>16</v>
       </c>
@@ -7722,9 +7966,15 @@
       <c r="AF23" s="29"/>
       <c r="AG23" s="30"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="23"/>
+      <c r="AI23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK23" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL23" s="31" t="s">
         <v>17</v>
       </c>
@@ -7814,9 +8064,15 @@
       <c r="AF24" s="21"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="23"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="23"/>
+      <c r="AI24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK24" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL24" s="24" t="s">
         <v>17</v>
       </c>
@@ -10085,7 +10341,7 @@
   <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10161,7 +10417,9 @@
       <c r="AF2" s="41"/>
       <c r="AG2" s="42"/>
       <c r="AH2" s="43"/>
-      <c r="AI2" s="41"/>
+      <c r="AI2" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="43"/>
       <c r="AL2" s="2" t="s">
@@ -10374,9 +10632,15 @@
       <c r="AF5" s="13"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="15"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="15"/>
+      <c r="AI5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL5" s="16" t="s">
         <v>13</v>
       </c>
@@ -10466,9 +10730,15 @@
       <c r="AF6" s="21"/>
       <c r="AG6" s="22"/>
       <c r="AH6" s="23"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="23"/>
+      <c r="AI6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL6" s="24"/>
       <c r="AM6" s="25">
         <f t="shared" si="0"/>
@@ -10556,9 +10826,15 @@
       <c r="AF7" s="21"/>
       <c r="AG7" s="22"/>
       <c r="AH7" s="23"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="23"/>
+      <c r="AI7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL7" s="24" t="s">
         <v>15</v>
       </c>
@@ -10648,9 +10924,15 @@
       <c r="AF8" s="21"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="23"/>
+      <c r="AI8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL8" s="24" t="s">
         <v>16</v>
       </c>
@@ -10740,9 +11022,15 @@
       <c r="AF9" s="21"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="23"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="23"/>
+      <c r="AI9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL9" s="24"/>
       <c r="AM9" s="25">
         <f t="shared" si="0"/>
@@ -10830,9 +11118,15 @@
       <c r="AF10" s="21"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="23"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="23"/>
+      <c r="AI10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL10" s="24" t="s">
         <v>16</v>
       </c>
@@ -10922,9 +11216,15 @@
       <c r="AF11" s="21"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="23"/>
+      <c r="AI11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL11" s="24" t="s">
         <v>16</v>
       </c>
@@ -11014,9 +11314,15 @@
       <c r="AF12" s="21"/>
       <c r="AG12" s="22"/>
       <c r="AH12" s="23"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="23"/>
+      <c r="AI12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK12" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL12" s="24" t="s">
         <v>13</v>
       </c>
@@ -11106,9 +11412,15 @@
       <c r="AF13" s="21"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="23"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="23"/>
+      <c r="AI13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL13" s="24" t="s">
         <v>17</v>
       </c>
@@ -11198,9 +11510,15 @@
       <c r="AF14" s="21"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="23"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
+      <c r="AI14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL14" s="24" t="s">
         <v>16</v>
       </c>
@@ -11290,9 +11608,15 @@
       <c r="AF15" s="21"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="23"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="23"/>
+      <c r="AI15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK15" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL15" s="24" t="s">
         <v>17</v>
       </c>
@@ -11382,9 +11706,15 @@
       <c r="AF16" s="21"/>
       <c r="AG16" s="22"/>
       <c r="AH16" s="23"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="23"/>
+      <c r="AI16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL16" s="24" t="s">
         <v>18</v>
       </c>
@@ -11474,9 +11804,15 @@
       <c r="AF17" s="21"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="23"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="23"/>
+      <c r="AI17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK17" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL17" s="24" t="s">
         <v>15</v>
       </c>
@@ -11566,9 +11902,15 @@
       <c r="AF18" s="21"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="23"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="23"/>
+      <c r="AI18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL18" s="24" t="s">
         <v>17</v>
       </c>
@@ -11658,9 +12000,15 @@
       <c r="AF19" s="21"/>
       <c r="AG19" s="22"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="23"/>
+      <c r="AI19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL19" s="24" t="s">
         <v>16</v>
       </c>
@@ -11750,9 +12098,15 @@
       <c r="AF20" s="21"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="23"/>
+      <c r="AI20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL20" s="24" t="s">
         <v>20</v>
       </c>
@@ -11842,9 +12196,15 @@
       <c r="AF21" s="21"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="23"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="23"/>
+      <c r="AI21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK21" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL21" s="24" t="s">
         <v>21</v>
       </c>
@@ -11934,9 +12294,15 @@
       <c r="AF22" s="21"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="28"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="28"/>
+      <c r="AI22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK22" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL22" s="24" t="s">
         <v>16</v>
       </c>
@@ -12026,9 +12392,15 @@
       <c r="AF23" s="29"/>
       <c r="AG23" s="30"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="23"/>
+      <c r="AI23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK23" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL23" s="31" t="s">
         <v>17</v>
       </c>
@@ -12118,9 +12490,15 @@
       <c r="AF24" s="21"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="23"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="23"/>
+      <c r="AI24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK24" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="AL24" s="24" t="s">
         <v>17</v>
       </c>

--- a/data/YearData.xlsx
+++ b/data/YearData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Damsy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34402352-CAC0-4BFC-902A-7B108C189DE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BDF21-8E81-46E4-9DE8-ACE7A2BFAAE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{2EAF2FF9-AFE1-45CB-BA33-B71752CE3960}"/>
   </bookViews>
@@ -17,26 +17,17 @@
     <sheet name="2 Trimester" sheetId="2" r:id="rId2"/>
     <sheet name="3 Trimester" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="230">
   <si>
     <t>Phillip Schantl</t>
   </si>
@@ -723,6 +714,9 @@
   </si>
   <si>
     <t>STA 2</t>
+  </si>
+  <si>
+    <t>Abschlussnote</t>
   </si>
 </sst>
 </file>
@@ -827,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1526,6 +1520,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1533,7 +1556,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,6 +2046,23 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2340,20 +2380,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B9AA94-3B8E-43B7-9817-39F2EDDFC78E}">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AS16" sqref="AS16"/>
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="37" width="4.44140625" customWidth="1"/>
-    <col min="38" max="38" width="11" customWidth="1"/>
-    <col min="39" max="41" width="4.44140625" customWidth="1"/>
+    <col min="38" max="39" width="11" customWidth="1"/>
+    <col min="40" max="42" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2435,13 +2475,16 @@
       <c r="AL2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="133" t="s">
+      <c r="AM2" s="139" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="135"/>
-    </row>
-    <row r="3" spans="1:41" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="135"/>
+    </row>
+    <row r="3" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -2554,22 +2597,23 @@
       <c r="AL3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:42" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="104" t="s">
         <v>24</v>
       </c>
@@ -2661,21 +2705,24 @@
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="14"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="16">
-        <f t="shared" ref="AM5:AO29" si="0">DP5</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="17">
+      <c r="AL5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="16">
+        <f t="shared" ref="AN5:AP29" si="0">DQ5</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="18">
+      <c r="AP5" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="105" t="s">
         <v>25</v>
       </c>
@@ -2768,20 +2815,21 @@
       <c r="AJ6" s="13"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="22"/>
-      <c r="AM6" s="23">
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="24">
+      <c r="AO6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="25">
+      <c r="AP6" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="106" t="s">
         <v>26</v>
       </c>
@@ -2873,21 +2921,24 @@
       <c r="AI7" s="12"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="14"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="23">
+      <c r="AL7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="24">
+      <c r="AO7" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="25">
+      <c r="AP7" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="105" t="s">
         <v>27</v>
       </c>
@@ -2979,21 +3030,24 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="23">
+      <c r="AL8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="24">
+      <c r="AO8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="25">
+      <c r="AP8" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="106" t="s">
         <v>28</v>
       </c>
@@ -3086,20 +3140,21 @@
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="22"/>
-      <c r="AM9" s="23">
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="24">
+      <c r="AO9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="25">
+      <c r="AP9" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="105" t="s">
         <v>29</v>
       </c>
@@ -3191,21 +3246,24 @@
       <c r="AI10" s="12"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="14"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="23">
+      <c r="AL10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="24">
+      <c r="AO10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="25">
+      <c r="AP10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="106" t="s">
         <v>30</v>
       </c>
@@ -3297,21 +3355,24 @@
       <c r="AI11" s="12"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="14"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="23">
+      <c r="AL11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="24">
+      <c r="AO11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="25">
+      <c r="AP11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="105" t="s">
         <v>31</v>
       </c>
@@ -3403,21 +3464,24 @@
       <c r="AI12" s="12"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="14"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="23">
+      <c r="AL12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="24">
+      <c r="AO12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="25">
+      <c r="AP12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="106" t="s">
         <v>32</v>
       </c>
@@ -3509,21 +3573,24 @@
       <c r="AI13" s="12"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="14"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="23">
+      <c r="AL13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="24">
+      <c r="AO13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="25">
+      <c r="AP13" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="105" t="s">
         <v>33</v>
       </c>
@@ -3613,21 +3680,24 @@
       <c r="AI14" s="12"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="14"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="23">
+      <c r="AL14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="24">
+      <c r="AO14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="25">
+      <c r="AP14" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="106" t="s">
         <v>34</v>
       </c>
@@ -3713,21 +3783,24 @@
       <c r="AI15" s="12"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="23">
+      <c r="AL15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="24">
+      <c r="AO15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="25">
+      <c r="AP15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="105" t="s">
         <v>35</v>
       </c>
@@ -3819,21 +3892,24 @@
       <c r="AI16" s="12"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="14"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="23">
+      <c r="AL16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="24">
+      <c r="AO16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="25">
+      <c r="AP16" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="106" t="s">
         <v>36</v>
       </c>
@@ -3925,21 +4001,24 @@
       <c r="AI17" s="12"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="23">
+      <c r="AL17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="24">
+      <c r="AO17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="25">
+      <c r="AP17" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="105" t="s">
         <v>37</v>
       </c>
@@ -4031,21 +4110,24 @@
       <c r="AI18" s="12"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="14"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="23">
+      <c r="AL18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="24">
+      <c r="AO18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="25">
+      <c r="AP18" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="106" t="s">
         <v>38</v>
       </c>
@@ -4135,21 +4217,24 @@
       <c r="AI19" s="12"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="14"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="23">
+      <c r="AL19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="24">
+      <c r="AO19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="25">
+      <c r="AP19" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="105" t="s">
         <v>39</v>
       </c>
@@ -4241,21 +4326,24 @@
       <c r="AI20" s="12"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="14"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="23">
+      <c r="AL20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="24">
+      <c r="AO20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="25">
+      <c r="AP20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="106" t="s">
         <v>40</v>
       </c>
@@ -4347,21 +4435,24 @@
       <c r="AI21" s="12"/>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="23">
+      <c r="AL21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="24">
+      <c r="AO21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="25">
+      <c r="AP21" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="105" t="s">
         <v>41</v>
       </c>
@@ -4453,21 +4544,24 @@
       <c r="AI22" s="12"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="14"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="23">
+      <c r="AL22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="24">
+      <c r="AO22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="25">
+      <c r="AP22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="106" t="s">
         <v>42</v>
       </c>
@@ -4559,21 +4653,24 @@
       <c r="AI23" s="12"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="14"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="23">
+      <c r="AL23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM23" s="142"/>
+      <c r="AN23" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="24">
+      <c r="AO23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="25">
+      <c r="AP23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="105" t="s">
         <v>43</v>
       </c>
@@ -4665,21 +4762,24 @@
       <c r="AI24" s="12"/>
       <c r="AJ24" s="13"/>
       <c r="AK24" s="14"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="23">
+      <c r="AL24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="24">
+      <c r="AO24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="25">
+      <c r="AP24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="106" t="s">
         <v>44</v>
       </c>
@@ -4772,20 +4872,21 @@
       <c r="AJ25" s="20"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="22"/>
-      <c r="AM25" s="23">
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="24">
+      <c r="AO25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="25">
+      <c r="AP25" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="105" t="s">
         <v>45</v>
       </c>
@@ -4878,20 +4979,21 @@
       <c r="AJ26" s="20"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="22"/>
-      <c r="AM26" s="23">
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="24">
+      <c r="AO26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="25">
+      <c r="AP26" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="106" t="s">
         <v>46</v>
       </c>
@@ -4982,20 +5084,21 @@
       <c r="AJ27" s="20"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="22"/>
-      <c r="AM27" s="23">
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="24">
+      <c r="AO27" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO27" s="25">
+      <c r="AP27" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
         <v>47</v>
       </c>
@@ -5088,20 +5191,21 @@
       <c r="AJ28" s="20"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="22"/>
-      <c r="AM28" s="23">
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="24">
+      <c r="AO28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="25">
+      <c r="AP28" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="106" t="s">
         <v>48</v>
       </c>
@@ -5194,20 +5298,21 @@
       <c r="AJ29" s="20"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="22"/>
-      <c r="AM29" s="23">
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="24">
+      <c r="AO29" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="25">
+      <c r="AP29" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="105" t="s">
         <v>49</v>
       </c>
@@ -5294,25 +5399,26 @@
       <c r="AJ30" s="31"/>
       <c r="AK30" s="33"/>
       <c r="AL30" s="32"/>
-      <c r="AM30" s="30">
-        <f>AVERAGE(AM5:AM29)</f>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="31">
+      <c r="AM30" s="143"/>
+      <c r="AN30" s="30">
         <f>AVERAGE(AN5:AN29)</f>
         <v>0</v>
       </c>
-      <c r="AO30" s="32">
+      <c r="AO30" s="31">
         <f>AVERAGE(AO5:AO29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:41" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AP30" s="32">
+        <f>AVERAGE(AP5:AP29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="106" t="s">
         <v>50</v>
       </c>
@@ -5404,21 +5510,24 @@
       <c r="AI32" s="119"/>
       <c r="AJ32" s="120"/>
       <c r="AK32" s="123"/>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="16">
-        <f t="shared" ref="AM32:AM56" si="1">DP32</f>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="17">
-        <f t="shared" ref="AN32:AN56" si="2">DQ32</f>
-        <v>0</v>
-      </c>
-      <c r="AO32" s="18">
-        <f t="shared" ref="AO32:AO56" si="3">DR32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AL32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM32" s="141"/>
+      <c r="AN32" s="16">
+        <f t="shared" ref="AN32:AN56" si="1">DQ32</f>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="17">
+        <f t="shared" ref="AO32:AO56" si="2">DR32</f>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="18">
+        <f t="shared" ref="AP32:AP56" si="3">DS32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" s="116" t="s">
         <v>51</v>
       </c>
@@ -5515,20 +5624,21 @@
       <c r="AJ33" s="108"/>
       <c r="AK33" s="124"/>
       <c r="AL33" s="22"/>
-      <c r="AM33" s="23">
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="24">
+      <c r="AO33" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO33" s="25">
+      <c r="AP33" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="117" t="s">
         <v>52</v>
       </c>
@@ -5614,21 +5724,24 @@
       <c r="AI34" s="93"/>
       <c r="AJ34" s="94"/>
       <c r="AK34" s="125"/>
-      <c r="AL34" s="22"/>
-      <c r="AM34" s="23">
+      <c r="AL34" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="24">
+      <c r="AO34" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO34" s="25">
+      <c r="AP34" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" s="118" t="s">
         <v>53</v>
       </c>
@@ -5724,21 +5837,24 @@
       <c r="AI35" s="107"/>
       <c r="AJ35" s="108"/>
       <c r="AK35" s="124"/>
-      <c r="AL35" s="22"/>
-      <c r="AM35" s="23">
+      <c r="AL35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="24">
+      <c r="AO35" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO35" s="25">
+      <c r="AP35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" s="117" t="s">
         <v>54</v>
       </c>
@@ -5835,20 +5951,21 @@
       <c r="AJ36" s="94"/>
       <c r="AK36" s="125"/>
       <c r="AL36" s="22"/>
-      <c r="AM36" s="23">
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="24">
+      <c r="AO36" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO36" s="25">
+      <c r="AP36" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" s="118" t="s">
         <v>55</v>
       </c>
@@ -5944,21 +6061,24 @@
       <c r="AI37" s="107"/>
       <c r="AJ37" s="108"/>
       <c r="AK37" s="124"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="23">
+      <c r="AL37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM37" s="57"/>
+      <c r="AN37" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="24">
+      <c r="AO37" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO37" s="25">
+      <c r="AP37" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" s="117" t="s">
         <v>56</v>
       </c>
@@ -6054,21 +6174,24 @@
       <c r="AI38" s="93"/>
       <c r="AJ38" s="94"/>
       <c r="AK38" s="125"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="23">
+      <c r="AL38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM38" s="57"/>
+      <c r="AN38" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="24">
+      <c r="AO38" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO38" s="25">
+      <c r="AP38" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" s="118" t="s">
         <v>57</v>
       </c>
@@ -6164,21 +6287,24 @@
       <c r="AI39" s="107"/>
       <c r="AJ39" s="108"/>
       <c r="AK39" s="124"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="23">
+      <c r="AL39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM39" s="57"/>
+      <c r="AN39" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="24">
+      <c r="AO39" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO39" s="25">
+      <c r="AP39" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" s="117" t="s">
         <v>58</v>
       </c>
@@ -6264,21 +6390,24 @@
       <c r="AI40" s="93"/>
       <c r="AJ40" s="94"/>
       <c r="AK40" s="125"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="23">
+      <c r="AL40" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM40" s="57"/>
+      <c r="AN40" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="24">
+      <c r="AO40" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO40" s="25">
+      <c r="AP40" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" s="118" t="s">
         <v>59</v>
       </c>
@@ -6374,21 +6503,24 @@
       <c r="AI41" s="107"/>
       <c r="AJ41" s="108"/>
       <c r="AK41" s="124"/>
-      <c r="AL41" s="22"/>
-      <c r="AM41" s="23">
+      <c r="AL41" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM41" s="57"/>
+      <c r="AN41" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN41" s="24">
+      <c r="AO41" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO41" s="25">
+      <c r="AP41" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" s="117" t="s">
         <v>60</v>
       </c>
@@ -6484,21 +6616,24 @@
       <c r="AI42" s="93"/>
       <c r="AJ42" s="94"/>
       <c r="AK42" s="125"/>
-      <c r="AL42" s="22"/>
-      <c r="AM42" s="23">
+      <c r="AL42" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN42" s="24">
+      <c r="AO42" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO42" s="25">
+      <c r="AP42" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" s="118" t="s">
         <v>61</v>
       </c>
@@ -6594,21 +6729,24 @@
       <c r="AI43" s="107"/>
       <c r="AJ43" s="108"/>
       <c r="AK43" s="124"/>
-      <c r="AL43" s="22"/>
-      <c r="AM43" s="23">
+      <c r="AL43" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM43" s="57"/>
+      <c r="AN43" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN43" s="24">
+      <c r="AO43" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO43" s="25">
+      <c r="AP43" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" s="117" t="s">
         <v>62</v>
       </c>
@@ -6704,21 +6842,24 @@
       <c r="AI44" s="93"/>
       <c r="AJ44" s="94"/>
       <c r="AK44" s="125"/>
-      <c r="AL44" s="22"/>
-      <c r="AM44" s="23">
+      <c r="AL44" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN44" s="24">
+      <c r="AO44" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO44" s="25">
+      <c r="AP44" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" s="118" t="s">
         <v>63</v>
       </c>
@@ -6815,20 +6956,21 @@
       <c r="AJ45" s="108"/>
       <c r="AK45" s="124"/>
       <c r="AL45" s="22"/>
-      <c r="AM45" s="23">
+      <c r="AM45" s="57"/>
+      <c r="AN45" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN45" s="24">
+      <c r="AO45" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO45" s="25">
+      <c r="AP45" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" s="117" t="s">
         <v>64</v>
       </c>
@@ -6917,20 +7059,21 @@
       <c r="AJ46" s="94"/>
       <c r="AK46" s="125"/>
       <c r="AL46" s="22"/>
-      <c r="AM46" s="23">
+      <c r="AM46" s="57"/>
+      <c r="AN46" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN46" s="24">
+      <c r="AO46" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO46" s="25">
+      <c r="AP46" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" s="118" t="s">
         <v>65</v>
       </c>
@@ -7023,20 +7166,21 @@
       <c r="AJ47" s="108"/>
       <c r="AK47" s="124"/>
       <c r="AL47" s="22"/>
-      <c r="AM47" s="23">
+      <c r="AM47" s="57"/>
+      <c r="AN47" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN47" s="24">
+      <c r="AO47" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO47" s="25">
+      <c r="AP47" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" s="117" t="s">
         <v>66</v>
       </c>
@@ -7129,20 +7273,21 @@
       <c r="AJ48" s="94"/>
       <c r="AK48" s="125"/>
       <c r="AL48" s="22"/>
-      <c r="AM48" s="23">
+      <c r="AM48" s="57"/>
+      <c r="AN48" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN48" s="24">
+      <c r="AO48" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO48" s="25">
+      <c r="AP48" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" s="118" t="s">
         <v>67</v>
       </c>
@@ -7235,20 +7380,21 @@
       <c r="AJ49" s="108"/>
       <c r="AK49" s="124"/>
       <c r="AL49" s="22"/>
-      <c r="AM49" s="23">
+      <c r="AM49" s="57"/>
+      <c r="AN49" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN49" s="24">
+      <c r="AO49" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO49" s="25">
+      <c r="AP49" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" s="117" t="s">
         <v>68</v>
       </c>
@@ -7341,20 +7487,21 @@
       <c r="AJ50" s="94"/>
       <c r="AK50" s="125"/>
       <c r="AL50" s="29"/>
-      <c r="AM50" s="23">
+      <c r="AM50" s="142"/>
+      <c r="AN50" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN50" s="24">
+      <c r="AO50" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO50" s="25">
+      <c r="AP50" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" s="118" t="s">
         <v>69</v>
       </c>
@@ -7447,20 +7594,21 @@
       <c r="AJ51" s="108"/>
       <c r="AK51" s="124"/>
       <c r="AL51" s="22"/>
-      <c r="AM51" s="23">
+      <c r="AM51" s="57"/>
+      <c r="AN51" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN51" s="24">
+      <c r="AO51" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO51" s="25">
+      <c r="AP51" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" s="117" t="s">
         <v>70</v>
       </c>
@@ -7551,20 +7699,21 @@
       <c r="AJ52" s="94"/>
       <c r="AK52" s="125"/>
       <c r="AL52" s="22"/>
-      <c r="AM52" s="23">
+      <c r="AM52" s="57"/>
+      <c r="AN52" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN52" s="24">
+      <c r="AO52" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO52" s="25">
+      <c r="AP52" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" s="118" t="s">
         <v>71</v>
       </c>
@@ -7657,20 +7806,21 @@
       <c r="AJ53" s="108"/>
       <c r="AK53" s="124"/>
       <c r="AL53" s="22"/>
-      <c r="AM53" s="23">
+      <c r="AM53" s="57"/>
+      <c r="AN53" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN53" s="24">
+      <c r="AO53" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO53" s="25">
+      <c r="AP53" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" s="117" t="s">
         <v>72</v>
       </c>
@@ -7763,20 +7913,21 @@
       <c r="AJ54" s="94"/>
       <c r="AK54" s="125"/>
       <c r="AL54" s="22"/>
-      <c r="AM54" s="23">
+      <c r="AM54" s="57"/>
+      <c r="AN54" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN54" s="24">
+      <c r="AO54" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO54" s="25">
+      <c r="AP54" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" s="118" t="s">
         <v>73</v>
       </c>
@@ -7869,20 +8020,21 @@
       <c r="AJ55" s="108"/>
       <c r="AK55" s="124"/>
       <c r="AL55" s="22"/>
-      <c r="AM55" s="23">
+      <c r="AM55" s="57"/>
+      <c r="AN55" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN55" s="24">
+      <c r="AO55" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO55" s="25">
+      <c r="AP55" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" s="117" t="s">
         <v>74</v>
       </c>
@@ -7975,20 +8127,21 @@
       <c r="AJ56" s="94"/>
       <c r="AK56" s="125"/>
       <c r="AL56" s="22"/>
-      <c r="AM56" s="23">
+      <c r="AM56" s="57"/>
+      <c r="AN56" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN56" s="24">
+      <c r="AO56" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO56" s="25">
+      <c r="AP56" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="118" t="s">
         <v>75</v>
       </c>
@@ -8081,20 +8234,21 @@
       <c r="AJ57" s="108"/>
       <c r="AK57" s="124"/>
       <c r="AL57" s="32"/>
-      <c r="AM57" s="30">
-        <f>AVERAGE(AM32:AM56)</f>
-        <v>0</v>
-      </c>
-      <c r="AN57" s="31">
+      <c r="AM57" s="143"/>
+      <c r="AN57" s="30">
         <f>AVERAGE(AN32:AN56)</f>
         <v>0</v>
       </c>
-      <c r="AO57" s="32">
+      <c r="AO57" s="31">
         <f>AVERAGE(AO32:AO56)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP57" s="32">
+        <f>AVERAGE(AP32:AP56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" s="117" t="s">
         <v>76</v>
       </c>
@@ -8187,7 +8341,7 @@
       <c r="AJ58" s="94"/>
       <c r="AK58" s="125"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" s="118" t="s">
         <v>77</v>
       </c>
@@ -8280,7 +8434,7 @@
       <c r="AJ59" s="108"/>
       <c r="AK59" s="124"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" s="117" t="s">
         <v>78</v>
       </c>
@@ -8373,7 +8527,7 @@
       <c r="AJ60" s="94"/>
       <c r="AK60" s="125"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61" s="118" t="s">
         <v>79</v>
       </c>
@@ -8466,7 +8620,7 @@
       <c r="AJ61" s="108"/>
       <c r="AK61" s="124"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62" s="117" t="s">
         <v>80</v>
       </c>
@@ -8559,7 +8713,7 @@
       <c r="AJ62" s="94"/>
       <c r="AK62" s="125"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63" s="118" t="s">
         <v>81</v>
       </c>
@@ -8652,7 +8806,7 @@
       <c r="AJ63" s="108"/>
       <c r="AK63" s="124"/>
     </row>
-    <row r="64" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="117" t="s">
         <v>82</v>
       </c>
@@ -8747,7 +8901,7 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
@@ -8769,21 +8923,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B9669-0DA6-4842-9745-1E27C83D376F}">
-  <dimension ref="A1:AR163"/>
+  <dimension ref="A1:AS163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK65" sqref="AK65"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="37" width="4.44140625" customWidth="1"/>
-    <col min="38" max="38" width="11" customWidth="1"/>
-    <col min="39" max="41" width="4.44140625" customWidth="1"/>
-    <col min="44" max="44" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="11" customWidth="1"/>
+    <col min="40" max="42" width="4.44140625" customWidth="1"/>
+    <col min="45" max="45" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -8800,7 +8954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8859,13 +9013,16 @@
       <c r="AL2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="133" t="s">
+      <c r="AM2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="135"/>
-    </row>
-    <row r="3" spans="1:44" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="135"/>
+    </row>
+    <row r="3" spans="1:45" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -8978,22 +9135,23 @@
       <c r="AL3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>24</v>
       </c>
@@ -9074,23 +9232,26 @@
       <c r="AL5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AM5" s="16">
+      <c r="AM5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="16">
         <f>AVERAGE(B5,E5,H5,K5,N5,Q5,T5,W5)</f>
         <v>1.5</v>
       </c>
-      <c r="AN5" s="17">
+      <c r="AO5" s="17">
         <f>AVERAGE(C5,F5,I5,L5,O5,R5,U5,X5)</f>
         <v>1.4</v>
       </c>
-      <c r="AO5" s="127">
+      <c r="AP5" s="127">
         <f>AVERAGE(D5,G5,J5,M5,P5,S5,V5,Y5)</f>
         <v>40.461482961482965</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>25</v>
       </c>
@@ -9171,27 +9332,30 @@
       <c r="AL6" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM6" s="16">
-        <f t="shared" ref="AM6:AM30" si="0">AVERAGE(B6,E6,H6,K6,N6,Q6,T6,W6)</f>
-        <v>2</v>
-      </c>
-      <c r="AN6" s="17">
-        <f t="shared" ref="AN6:AN64" si="1">AVERAGE(C6,F6,I6,L6,O6,R6,U6,X6)</f>
+      <c r="AM6" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN6" s="16">
+        <f t="shared" ref="AN6:AN30" si="0">AVERAGE(B6,E6,H6,K6,N6,Q6,T6,W6)</f>
+        <v>2</v>
+      </c>
+      <c r="AO6" s="17">
+        <f t="shared" ref="AO6:AO64" si="1">AVERAGE(C6,F6,I6,L6,O6,R6,U6,X6)</f>
         <v>1.8</v>
       </c>
-      <c r="AO6" s="127">
-        <f t="shared" ref="AO6:AO64" si="2">AVERAGE(D6,G6,J6,M6,P6,S6,V6,Y6)</f>
+      <c r="AP6" s="127">
+        <f t="shared" ref="AP6:AP64" si="2">AVERAGE(D6,G6,J6,M6,P6,S6,V6,Y6)</f>
         <v>43.772893772893774</v>
       </c>
-      <c r="AQ6" s="14">
+      <c r="AR6" s="14">
         <v>6</v>
       </c>
-      <c r="AR6" s="73">
-        <f>(AQ6/$AQ$5)*100</f>
+      <c r="AS6" s="73">
+        <f>(AR6/$AR$5)*100</f>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
@@ -9274,27 +9438,30 @@
       <c r="AL7" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="AM7" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN7" s="16">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AN7" s="17">
+      <c r="AO7" s="17">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AO7" s="127">
+      <c r="AP7" s="127">
         <f t="shared" si="2"/>
         <v>49.114774114774114</v>
       </c>
-      <c r="AQ7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="73">
-        <f t="shared" ref="AR7:AR66" si="3">(AQ7/$AQ$5)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AR7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="73">
+        <f t="shared" ref="AS7:AS66" si="3">(AR7/$AR$5)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>27</v>
       </c>
@@ -9375,27 +9542,30 @@
       <c r="AL8" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AM8" s="16">
+      <c r="AM8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN8" s="16">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="AN8" s="17">
+      <c r="AO8" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO8" s="127">
+      <c r="AP8" s="127">
         <f t="shared" si="2"/>
         <v>90.023310023310032</v>
       </c>
-      <c r="AQ8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="73">
+      <c r="AR8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
         <v>28</v>
       </c>
@@ -9474,27 +9644,30 @@
       <c r="AL9" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM9" s="16">
+      <c r="AM9" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN9" s="16">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="AN9" s="17">
+      <c r="AO9" s="17">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="AO9" s="127">
+      <c r="AP9" s="127">
         <f t="shared" si="2"/>
         <v>42.682317682317681</v>
       </c>
-      <c r="AQ9" s="21">
+      <c r="AR9" s="21">
         <v>10</v>
       </c>
-      <c r="AR9" s="73">
+      <c r="AS9" s="73">
         <f t="shared" si="3"/>
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>29</v>
       </c>
@@ -9575,27 +9748,30 @@
       <c r="AL10" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM10" s="16">
+      <c r="AM10" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN10" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AN10" s="17">
+      <c r="AO10" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO10" s="127">
+      <c r="AP10" s="127">
         <f t="shared" si="2"/>
         <v>56.591741591741595</v>
       </c>
-      <c r="AQ10" s="21">
-        <v>2</v>
-      </c>
-      <c r="AR10" s="73">
+      <c r="AR10" s="21">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="73">
         <f t="shared" si="3"/>
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
@@ -9674,27 +9850,30 @@
       <c r="AL11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AM11" s="16">
+      <c r="AM11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN11" s="16">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AN11" s="17">
+      <c r="AO11" s="17">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AO11" s="127">
+      <c r="AP11" s="127">
         <f t="shared" si="2"/>
         <v>78.257575757575765</v>
       </c>
-      <c r="AQ11" s="21">
+      <c r="AR11" s="21">
         <v>4</v>
       </c>
-      <c r="AR11" s="73">
+      <c r="AS11" s="73">
         <f t="shared" si="3"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>31</v>
       </c>
@@ -9773,27 +9952,30 @@
       <c r="AL12" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AM12" s="16">
+      <c r="AM12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN12" s="16">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AN12" s="17">
+      <c r="AO12" s="17">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AO12" s="127">
+      <c r="AP12" s="127">
         <f t="shared" si="2"/>
         <v>63.765401265401266</v>
       </c>
-      <c r="AQ12" s="21">
+      <c r="AR12" s="21">
         <v>4</v>
       </c>
-      <c r="AR12" s="73">
+      <c r="AS12" s="73">
         <f t="shared" si="3"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
         <v>32</v>
       </c>
@@ -9870,27 +10052,30 @@
       <c r="AL13" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AM13" s="16">
+      <c r="AM13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN13" s="16">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AN13" s="17">
+      <c r="AO13" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO13" s="127">
+      <c r="AP13" s="127">
         <f t="shared" si="2"/>
         <v>68.496503496503493</v>
       </c>
-      <c r="AQ13" s="21">
+      <c r="AR13" s="21">
         <v>7</v>
       </c>
-      <c r="AR13" s="73">
+      <c r="AS13" s="73">
         <f t="shared" si="3"/>
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>33</v>
       </c>
@@ -9947,27 +10132,30 @@
       <c r="AL14" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM14" s="16">
+      <c r="AM14" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN14" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AN14" s="17">
+      <c r="AO14" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO14" s="127">
+      <c r="AP14" s="127">
         <f t="shared" si="2"/>
         <v>46.666666666666664</v>
       </c>
-      <c r="AQ14" s="21">
+      <c r="AR14" s="21">
         <v>7</v>
       </c>
-      <c r="AR14" s="73">
+      <c r="AS14" s="73">
         <f t="shared" si="3"/>
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
@@ -10044,25 +10232,26 @@
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="22"/>
-      <c r="AM15" s="16">
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AN15" s="17">
+      <c r="AO15" s="17">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AO15" s="127">
+      <c r="AP15" s="127">
         <f t="shared" si="2"/>
         <v>62.131202131202137</v>
       </c>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="73">
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>35</v>
       </c>
@@ -10143,27 +10332,30 @@
       <c r="AL16" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AM16" s="16">
+      <c r="AM16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN16" s="16">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AN16" s="17">
+      <c r="AO16" s="17">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="AO16" s="127">
+      <c r="AP16" s="127">
         <f t="shared" si="2"/>
         <v>61.748529248529252</v>
       </c>
-      <c r="AQ16" s="21">
+      <c r="AR16" s="21">
         <v>6</v>
       </c>
-      <c r="AR16" s="73">
+      <c r="AS16" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
         <v>36</v>
       </c>
@@ -10244,27 +10436,30 @@
       <c r="AL17" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AM17" s="16">
+      <c r="AM17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN17" s="16">
         <f t="shared" si="0"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="AN17" s="17">
+      <c r="AO17" s="17">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="AO17" s="127">
+      <c r="AP17" s="127">
         <f t="shared" si="2"/>
         <v>72.963425463425466</v>
       </c>
-      <c r="AQ17" s="21">
+      <c r="AR17" s="21">
         <v>5</v>
       </c>
-      <c r="AR17" s="73">
+      <c r="AS17" s="73">
         <f t="shared" si="3"/>
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
         <v>37</v>
       </c>
@@ -10345,27 +10540,30 @@
       <c r="AL18" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AM18" s="16">
+      <c r="AM18" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN18" s="16">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AN18" s="17">
+      <c r="AO18" s="17">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="AO18" s="127">
+      <c r="AP18" s="127">
         <f t="shared" si="2"/>
         <v>46.178821178821181</v>
       </c>
-      <c r="AQ18" s="21">
+      <c r="AR18" s="21">
         <v>5</v>
       </c>
-      <c r="AR18" s="73">
+      <c r="AS18" s="73">
         <f t="shared" si="3"/>
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
         <v>38</v>
       </c>
@@ -10446,27 +10644,30 @@
       <c r="AL19" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM19" s="16">
+      <c r="AM19" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN19" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AN19" s="17">
+      <c r="AO19" s="17">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="AO19" s="127">
+      <c r="AP19" s="127">
         <f t="shared" si="2"/>
         <v>32.637917637917631</v>
       </c>
-      <c r="AQ19" s="21">
+      <c r="AR19" s="21">
         <v>6</v>
       </c>
-      <c r="AR19" s="73">
+      <c r="AS19" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
         <v>39</v>
       </c>
@@ -10549,27 +10750,30 @@
       <c r="AL20" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM20" s="16">
+      <c r="AM20" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN20" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AN20" s="17">
+      <c r="AO20" s="17">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="AO20" s="127">
+      <c r="AP20" s="127">
         <f t="shared" si="2"/>
         <v>52.449772449772446</v>
       </c>
-      <c r="AQ20" s="21">
+      <c r="AR20" s="21">
         <v>6</v>
       </c>
-      <c r="AR20" s="73">
+      <c r="AS20" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>40</v>
       </c>
@@ -10646,27 +10850,30 @@
       <c r="AL21" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="AM21" s="16">
+      <c r="AM21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN21" s="16">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="AN21" s="17">
+      <c r="AO21" s="17">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="AO21" s="127">
+      <c r="AP21" s="127">
         <f t="shared" si="2"/>
         <v>74.05927405927406</v>
       </c>
-      <c r="AQ21" s="21">
+      <c r="AR21" s="21">
         <v>7</v>
       </c>
-      <c r="AR21" s="73">
+      <c r="AS21" s="73">
         <f t="shared" si="3"/>
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
         <v>41</v>
       </c>
@@ -10745,27 +10952,30 @@
       <c r="AL22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AM22" s="16">
+      <c r="AM22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN22" s="16">
         <f t="shared" si="0"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="AN22" s="17">
+      <c r="AO22" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO22" s="127">
+      <c r="AP22" s="127">
         <f t="shared" si="2"/>
         <v>91.880341880341874</v>
       </c>
-      <c r="AQ22" s="21">
+      <c r="AR22" s="21">
         <v>6</v>
       </c>
-      <c r="AR22" s="73">
+      <c r="AS22" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
         <v>42</v>
       </c>
@@ -10846,27 +11056,30 @@
       <c r="AL23" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="AM23" s="16">
+      <c r="AM23" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN23" s="16">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AN23" s="17">
+      <c r="AO23" s="17">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="AO23" s="127">
+      <c r="AP23" s="127">
         <f t="shared" si="2"/>
         <v>38.98656898656899</v>
       </c>
-      <c r="AQ23" s="21">
+      <c r="AR23" s="21">
         <v>11</v>
       </c>
-      <c r="AR23" s="73">
+      <c r="AS23" s="73">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
         <v>43</v>
       </c>
@@ -10949,25 +11162,28 @@
       <c r="AL24" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AM24" s="16">
+      <c r="AM24" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN24" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AN24" s="17">
+      <c r="AO24" s="17">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="AO24" s="127">
+      <c r="AP24" s="127">
         <f t="shared" si="2"/>
         <v>28.586968586968585</v>
       </c>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="73">
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
         <v>44</v>
       </c>
@@ -11046,27 +11262,30 @@
       <c r="AL25" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AM25" s="16">
+      <c r="AM25" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN25" s="16">
         <f t="shared" si="0"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="AN25" s="17">
+      <c r="AO25" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO25" s="127">
+      <c r="AP25" s="127">
         <f t="shared" si="2"/>
         <v>87.820512820512818</v>
       </c>
-      <c r="AQ25" s="21">
-        <v>3</v>
-      </c>
-      <c r="AR25" s="73">
+      <c r="AR25" s="21">
+        <v>3</v>
+      </c>
+      <c r="AS25" s="73">
         <f t="shared" si="3"/>
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>45</v>
       </c>
@@ -11149,27 +11368,30 @@
       <c r="AL26" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="AM26" s="16">
+      <c r="AM26" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN26" s="16">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AN26" s="17">
+      <c r="AO26" s="17">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="AO26" s="127">
+      <c r="AP26" s="127">
         <f t="shared" si="2"/>
         <v>54.22799422799423</v>
       </c>
-      <c r="AQ26" s="21">
+      <c r="AR26" s="21">
         <v>11</v>
       </c>
-      <c r="AR26" s="73">
+      <c r="AS26" s="73">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
         <v>46</v>
       </c>
@@ -11248,27 +11470,30 @@
       <c r="AL27" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="AM27" s="16">
+      <c r="AM27" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN27" s="16">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AN27" s="17">
+      <c r="AO27" s="17">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="AO27" s="127">
+      <c r="AP27" s="127">
         <f t="shared" si="2"/>
         <v>37.234765234765241</v>
       </c>
-      <c r="AQ27" s="21">
-        <v>3</v>
-      </c>
-      <c r="AR27" s="73">
+      <c r="AR27" s="21">
+        <v>3</v>
+      </c>
+      <c r="AS27" s="73">
         <f t="shared" si="3"/>
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
         <v>47</v>
       </c>
@@ -11343,27 +11568,30 @@
       <c r="AL28" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="AM28" s="16">
+      <c r="AM28" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN28" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AN28" s="17">
+      <c r="AO28" s="17">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="AO28" s="127">
+      <c r="AP28" s="127">
         <f t="shared" si="2"/>
         <v>49.987345987345989</v>
       </c>
-      <c r="AQ28" s="21">
-        <v>3</v>
-      </c>
-      <c r="AR28" s="73">
+      <c r="AR28" s="21">
+        <v>3</v>
+      </c>
+      <c r="AS28" s="73">
         <f t="shared" si="3"/>
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="29" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
         <v>48</v>
       </c>
@@ -11444,27 +11672,30 @@
       <c r="AL29" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="AM29" s="16">
+      <c r="AM29" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN29" s="16">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="AN29" s="17">
+      <c r="AO29" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO29" s="127">
+      <c r="AP29" s="127">
         <f t="shared" si="2"/>
         <v>43.136030636030632</v>
       </c>
-      <c r="AQ29" s="21">
+      <c r="AR29" s="21">
         <v>7</v>
       </c>
-      <c r="AR29" s="73">
+      <c r="AS29" s="73">
         <f t="shared" si="3"/>
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="30" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
         <v>49</v>
       </c>
@@ -11547,27 +11778,30 @@
       <c r="AL30" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="AM30" s="16">
+      <c r="AM30" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN30" s="16">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AN30" s="17">
+      <c r="AO30" s="17">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="AO30" s="127">
+      <c r="AP30" s="127">
         <f t="shared" si="2"/>
         <v>64.521589521589519</v>
       </c>
-      <c r="AQ30" s="21">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="73">
+      <c r="AR30" s="21">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="73">
         <f t="shared" si="3"/>
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="31" spans="1:44" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:45" s="34" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
         <v>23</v>
       </c>
@@ -11596,15 +11830,15 @@
       <c r="AF31" s="86"/>
       <c r="AG31" s="86"/>
       <c r="AH31" s="86"/>
-      <c r="AQ31" s="64">
+      <c r="AR31" s="64">
         <v>9</v>
       </c>
-      <c r="AR31" s="73">
+      <c r="AS31" s="73">
         <f t="shared" si="3"/>
         <v>81.818181818181827</v>
       </c>
     </row>
-    <row r="32" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="81" t="s">
         <v>50</v>
       </c>
@@ -11687,27 +11921,30 @@
       <c r="AL32" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="AM32" s="16">
+      <c r="AM32" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN32" s="16">
         <f>AVERAGE(B32,E32,H32,K32,N32,Q32,T32,W32)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AN32" s="17">
+      <c r="AO32" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO32" s="127">
+      <c r="AP32" s="127">
         <f t="shared" si="2"/>
         <v>63.815351315351315</v>
       </c>
-      <c r="AQ32" s="14">
+      <c r="AR32" s="14">
         <v>8</v>
       </c>
-      <c r="AR32" s="73">
+      <c r="AS32" s="73">
         <f t="shared" si="3"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="33" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>51</v>
       </c>
@@ -11788,27 +12025,30 @@
       <c r="AL33" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="AM33" s="16">
-        <f t="shared" ref="AM33:AM64" si="4">AVERAGE(B33,E33,H33,K33,N33,Q33,T33,W33)</f>
+      <c r="AM33" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN33" s="16">
+        <f t="shared" ref="AN33:AN64" si="4">AVERAGE(B33,E33,H33,K33,N33,Q33,T33,W33)</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="AN33" s="17">
+      <c r="AO33" s="17">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="AO33" s="127">
+      <c r="AP33" s="127">
         <f t="shared" si="2"/>
         <v>50.548784548784546</v>
       </c>
-      <c r="AQ33" s="21">
+      <c r="AR33" s="21">
         <v>5</v>
       </c>
-      <c r="AR33" s="73">
+      <c r="AS33" s="73">
         <f t="shared" si="3"/>
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="34" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="39" t="s">
         <v>52</v>
       </c>
@@ -11887,27 +12127,30 @@
       <c r="AL34" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AM34" s="16">
+      <c r="AM34" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN34" s="16">
         <f t="shared" si="4"/>
         <v>2.8</v>
       </c>
-      <c r="AN34" s="17">
+      <c r="AO34" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO34" s="127">
+      <c r="AP34" s="127">
         <f t="shared" si="2"/>
         <v>52.630702630702622</v>
       </c>
-      <c r="AQ34" s="21">
+      <c r="AR34" s="21">
         <v>5</v>
       </c>
-      <c r="AR34" s="73">
+      <c r="AS34" s="73">
         <f t="shared" si="3"/>
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="35" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="38" t="s">
         <v>53</v>
       </c>
@@ -11990,27 +12233,30 @@
       <c r="AL35" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AM35" s="16">
+      <c r="AM35" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN35" s="16">
         <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AN35" s="17">
+      <c r="AO35" s="17">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="AO35" s="127">
+      <c r="AP35" s="127">
         <f t="shared" si="2"/>
         <v>75.331335331335325</v>
       </c>
-      <c r="AQ35" s="21">
+      <c r="AR35" s="21">
         <v>7</v>
       </c>
-      <c r="AR35" s="73">
+      <c r="AS35" s="73">
         <f t="shared" si="3"/>
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="36" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39" t="s">
         <v>54</v>
       </c>
@@ -12083,25 +12329,26 @@
       <c r="AJ36" s="59"/>
       <c r="AK36" s="60"/>
       <c r="AL36" s="44"/>
-      <c r="AM36" s="16">
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="16">
         <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="AN36" s="17">
+      <c r="AO36" s="17">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="AO36" s="127">
+      <c r="AP36" s="127">
         <f t="shared" si="2"/>
         <v>65.006105006104988</v>
       </c>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="73">
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="38" t="s">
         <v>55</v>
       </c>
@@ -12182,27 +12429,30 @@
       <c r="AL37" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AM37" s="16">
+      <c r="AM37" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN37" s="16">
         <f t="shared" si="4"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="AN37" s="17">
+      <c r="AO37" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO37" s="127">
+      <c r="AP37" s="127">
         <f t="shared" si="2"/>
         <v>65.592740592740583</v>
       </c>
-      <c r="AQ37" s="21">
+      <c r="AR37" s="21">
         <v>6</v>
       </c>
-      <c r="AR37" s="73">
+      <c r="AS37" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="38" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>56</v>
       </c>
@@ -12285,27 +12535,30 @@
       <c r="AL38" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AM38" s="16">
+      <c r="AM38" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN38" s="16">
         <f t="shared" si="4"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AN38" s="17">
+      <c r="AO38" s="17">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="AO38" s="127">
+      <c r="AP38" s="127">
         <f t="shared" si="2"/>
         <v>63.646076146076147</v>
       </c>
-      <c r="AQ38" s="21">
+      <c r="AR38" s="21">
         <v>4</v>
       </c>
-      <c r="AR38" s="73">
+      <c r="AS38" s="73">
         <f t="shared" si="3"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="39" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="38" t="s">
         <v>57</v>
       </c>
@@ -12386,27 +12639,30 @@
       <c r="AL39" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AM39" s="16">
+      <c r="AM39" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN39" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN39" s="17">
+      <c r="AO39" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO39" s="127">
+      <c r="AP39" s="127">
         <f t="shared" si="2"/>
         <v>69.346486846486854</v>
       </c>
-      <c r="AQ39" s="21">
+      <c r="AR39" s="21">
         <v>8</v>
       </c>
-      <c r="AR39" s="73">
+      <c r="AS39" s="73">
         <f t="shared" si="3"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="40" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="39" t="s">
         <v>58</v>
       </c>
@@ -12481,27 +12737,28 @@
       <c r="AJ40" s="59"/>
       <c r="AK40" s="60"/>
       <c r="AL40" s="44"/>
-      <c r="AM40" s="16">
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="16">
         <f t="shared" si="4"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="AN40" s="17">
+      <c r="AO40" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AO40" s="127">
+      <c r="AP40" s="127">
         <f t="shared" si="2"/>
         <v>43.003108003107997</v>
       </c>
-      <c r="AQ40" s="21">
+      <c r="AR40" s="21">
         <v>5</v>
       </c>
-      <c r="AR40" s="73">
+      <c r="AS40" s="73">
         <f t="shared" si="3"/>
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="41" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="38" t="s">
         <v>59</v>
       </c>
@@ -12582,27 +12839,30 @@
       <c r="AL41" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AM41" s="16">
+      <c r="AM41" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN41" s="16">
         <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="AN41" s="17">
+      <c r="AO41" s="17">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="AO41" s="127">
+      <c r="AP41" s="127">
         <f t="shared" si="2"/>
         <v>42.490842490842489</v>
       </c>
-      <c r="AQ41" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="73">
+      <c r="AR41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39" t="s">
         <v>60</v>
       </c>
@@ -12683,27 +12943,30 @@
       <c r="AL42" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AM42" s="16">
+      <c r="AM42" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN42" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN42" s="17">
+      <c r="AO42" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO42" s="127">
+      <c r="AP42" s="127">
         <f t="shared" si="2"/>
         <v>87.488622488622511</v>
       </c>
-      <c r="AQ42" s="21">
+      <c r="AR42" s="21">
         <v>9</v>
       </c>
-      <c r="AR42" s="73">
+      <c r="AS42" s="73">
         <f t="shared" si="3"/>
         <v>81.818181818181827</v>
       </c>
     </row>
-    <row r="43" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
         <v>61</v>
       </c>
@@ -12780,27 +13043,30 @@
       <c r="AL43" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AM43" s="16">
+      <c r="AM43" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN43" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN43" s="17">
+      <c r="AO43" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO43" s="127">
+      <c r="AP43" s="127">
         <f t="shared" si="2"/>
         <v>94.181818181818173</v>
       </c>
-      <c r="AQ43" s="21">
+      <c r="AR43" s="21">
         <v>10</v>
       </c>
-      <c r="AR43" s="73">
+      <c r="AS43" s="73">
         <f t="shared" si="3"/>
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>62</v>
       </c>
@@ -12881,27 +13147,30 @@
       <c r="AL44" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AM44" s="16">
+      <c r="AM44" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN44" s="16">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AN44" s="17">
+      <c r="AO44" s="17">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="AO44" s="127">
+      <c r="AP44" s="127">
         <f t="shared" si="2"/>
         <v>45.468420468420469</v>
       </c>
-      <c r="AQ44" s="21">
+      <c r="AR44" s="21">
         <v>4</v>
       </c>
-      <c r="AR44" s="73">
+      <c r="AS44" s="73">
         <f t="shared" si="3"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
         <v>63</v>
       </c>
@@ -12978,27 +13247,30 @@
       <c r="AL45" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AM45" s="16">
+      <c r="AM45" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN45" s="16">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="AN45" s="17">
+      <c r="AO45" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO45" s="127">
+      <c r="AP45" s="127">
         <f t="shared" si="2"/>
         <v>60.634032634032636</v>
       </c>
-      <c r="AQ45" s="21">
-        <v>3</v>
-      </c>
-      <c r="AR45" s="73">
+      <c r="AR45" s="21">
+        <v>3</v>
+      </c>
+      <c r="AS45" s="73">
         <f t="shared" si="3"/>
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="46" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="39" t="s">
         <v>64</v>
       </c>
@@ -13079,27 +13351,30 @@
       <c r="AL46" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AM46" s="16">
+      <c r="AM46" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN46" s="16">
         <f t="shared" si="4"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="AN46" s="17">
+      <c r="AO46" s="17">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="AO46" s="127">
+      <c r="AP46" s="127">
         <f t="shared" si="2"/>
         <v>67.563825063825064</v>
       </c>
-      <c r="AQ46" s="21">
+      <c r="AR46" s="21">
         <v>8</v>
       </c>
-      <c r="AR46" s="73">
+      <c r="AS46" s="73">
         <f t="shared" si="3"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="47" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>65</v>
       </c>
@@ -13182,27 +13457,30 @@
       <c r="AL47" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AM47" s="16">
+      <c r="AM47" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN47" s="16">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="AN47" s="17">
+      <c r="AO47" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AO47" s="127">
+      <c r="AP47" s="127">
         <f t="shared" si="2"/>
         <v>60.961260961260962</v>
       </c>
-      <c r="AQ47" s="21">
+      <c r="AR47" s="21">
         <v>8</v>
       </c>
-      <c r="AR47" s="73">
+      <c r="AS47" s="73">
         <f t="shared" si="3"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="48" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="39" t="s">
         <v>66</v>
       </c>
@@ -13283,27 +13561,30 @@
       <c r="AL48" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AM48" s="16">
+      <c r="AM48" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN48" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN48" s="17">
+      <c r="AO48" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO48" s="127">
+      <c r="AP48" s="127">
         <f t="shared" si="2"/>
         <v>86.218781218781217</v>
       </c>
-      <c r="AQ48" s="21">
+      <c r="AR48" s="21">
         <v>9</v>
       </c>
-      <c r="AR48" s="73">
+      <c r="AS48" s="73">
         <f t="shared" si="3"/>
         <v>81.818181818181827</v>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
         <v>67</v>
       </c>
@@ -13384,27 +13665,30 @@
       <c r="AL49" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AM49" s="16">
+      <c r="AM49" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN49" s="16">
         <f t="shared" si="4"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AN49" s="17">
+      <c r="AO49" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO49" s="127">
+      <c r="AP49" s="127">
         <f t="shared" si="2"/>
         <v>40.57192807192807</v>
       </c>
-      <c r="AQ49" s="21">
-        <v>1</v>
-      </c>
-      <c r="AR49" s="73">
+      <c r="AR49" s="21">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="73">
         <f t="shared" si="3"/>
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="39" t="s">
         <v>68</v>
       </c>
@@ -13481,25 +13765,28 @@
       <c r="AL50" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AM50" s="16">
+      <c r="AM50" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN50" s="16">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="AN50" s="17">
+      <c r="AO50" s="17">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="AO50" s="127">
+      <c r="AP50" s="127">
         <f t="shared" si="2"/>
         <v>34.230769230769226</v>
       </c>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="73">
+      <c r="AR50" s="21"/>
+      <c r="AS50" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
         <v>69</v>
       </c>
@@ -13576,27 +13863,28 @@
       <c r="AJ51" s="65"/>
       <c r="AK51" s="66"/>
       <c r="AL51" s="44"/>
-      <c r="AM51" s="16">
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="16">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="AN51" s="17">
+      <c r="AO51" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO51" s="127">
+      <c r="AP51" s="127">
         <f t="shared" si="2"/>
         <v>50.467587967587974</v>
       </c>
-      <c r="AQ51" s="21">
+      <c r="AR51" s="21">
         <v>6</v>
       </c>
-      <c r="AR51" s="73">
+      <c r="AS51" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="39" t="s">
         <v>70</v>
       </c>
@@ -13677,27 +13965,30 @@
       <c r="AL52" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AM52" s="16">
+      <c r="AM52" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN52" s="16">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="AN52" s="17">
+      <c r="AO52" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AO52" s="127">
+      <c r="AP52" s="127">
         <f t="shared" si="2"/>
         <v>37.720335220335222</v>
       </c>
-      <c r="AQ52" s="21">
+      <c r="AR52" s="21">
         <v>6</v>
       </c>
-      <c r="AR52" s="73">
+      <c r="AS52" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
         <v>71</v>
       </c>
@@ -13772,27 +14063,30 @@
       <c r="AL53" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AM53" s="16">
+      <c r="AM53" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN53" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN53" s="17">
+      <c r="AO53" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO53" s="127">
+      <c r="AP53" s="127">
         <f t="shared" si="2"/>
         <v>83.776223776223787</v>
       </c>
-      <c r="AQ53" s="21">
+      <c r="AR53" s="21">
         <v>8</v>
       </c>
-      <c r="AR53" s="73">
+      <c r="AS53" s="73">
         <f t="shared" si="3"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="39" t="s">
         <v>72</v>
       </c>
@@ -13871,27 +14165,30 @@
       <c r="AL54" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AM54" s="16">
+      <c r="AM54" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN54" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN54" s="17">
+      <c r="AO54" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO54" s="127">
+      <c r="AP54" s="127">
         <f t="shared" si="2"/>
         <v>90.509490509490504</v>
       </c>
-      <c r="AQ54" s="21">
+      <c r="AR54" s="21">
         <v>8</v>
       </c>
-      <c r="AR54" s="73">
+      <c r="AS54" s="73">
         <f t="shared" si="3"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="38" t="s">
         <v>73</v>
       </c>
@@ -13972,27 +14269,30 @@
       <c r="AL55" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AM55" s="16">
+      <c r="AM55" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN55" s="16">
         <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AN55" s="17">
+      <c r="AO55" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO55" s="127">
+      <c r="AP55" s="127">
         <f t="shared" si="2"/>
         <v>60.464535464535459</v>
       </c>
-      <c r="AQ55" s="21">
+      <c r="AR55" s="21">
         <v>6</v>
       </c>
-      <c r="AR55" s="73">
+      <c r="AS55" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="39" t="s">
         <v>74</v>
       </c>
@@ -14073,27 +14373,30 @@
       <c r="AL56" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AM56" s="16">
+      <c r="AM56" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN56" s="16">
         <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AN56" s="17">
+      <c r="AO56" s="17">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AO56" s="127">
+      <c r="AP56" s="127">
         <f t="shared" si="2"/>
         <v>52.12509712509712</v>
       </c>
-      <c r="AQ56" s="21">
+      <c r="AR56" s="21">
         <v>6</v>
       </c>
-      <c r="AR56" s="73">
+      <c r="AS56" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="38" t="s">
         <v>75</v>
       </c>
@@ -14168,27 +14471,30 @@
       <c r="AL57" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="AM57" s="16">
+      <c r="AM57" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN57" s="16">
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="AN57" s="17">
+      <c r="AO57" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO57" s="127">
+      <c r="AP57" s="127">
         <f t="shared" si="2"/>
         <v>76.95804195804196</v>
       </c>
-      <c r="AQ57" s="21">
+      <c r="AR57" s="21">
         <v>7</v>
       </c>
-      <c r="AR57" s="73">
+      <c r="AS57" s="73">
         <f t="shared" si="3"/>
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="39" t="s">
         <v>76</v>
       </c>
@@ -14271,27 +14577,30 @@
       <c r="AL58" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="AM58" s="16">
+      <c r="AM58" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN58" s="16">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="AN58" s="17">
+      <c r="AO58" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO58" s="127">
+      <c r="AP58" s="127">
         <f t="shared" si="2"/>
         <v>90.114885114885112</v>
       </c>
-      <c r="AQ58" s="21">
+      <c r="AR58" s="21">
         <v>10</v>
       </c>
-      <c r="AR58" s="73">
+      <c r="AS58" s="73">
         <f t="shared" si="3"/>
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="38" t="s">
         <v>77</v>
       </c>
@@ -14374,27 +14683,30 @@
       <c r="AL59" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AM59" s="16">
+      <c r="AM59" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN59" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN59" s="17">
+      <c r="AO59" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO59" s="127">
+      <c r="AP59" s="127">
         <f t="shared" si="2"/>
         <v>81.727439227439234</v>
       </c>
-      <c r="AQ59" s="21">
+      <c r="AR59" s="21">
         <v>8</v>
       </c>
-      <c r="AR59" s="73">
+      <c r="AS59" s="73">
         <f t="shared" si="3"/>
         <v>72.727272727272734</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="39" t="s">
         <v>78</v>
       </c>
@@ -14473,27 +14785,30 @@
       <c r="AL60" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AM60" s="16">
+      <c r="AM60" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN60" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN60" s="17">
+      <c r="AO60" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO60" s="127">
+      <c r="AP60" s="127">
         <f t="shared" si="2"/>
         <v>92.287157287157285</v>
       </c>
-      <c r="AQ60" s="21">
+      <c r="AR60" s="21">
         <v>9</v>
       </c>
-      <c r="AR60" s="73">
+      <c r="AS60" s="73">
         <f t="shared" si="3"/>
         <v>81.818181818181827</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="38" t="s">
         <v>79</v>
       </c>
@@ -14572,27 +14887,30 @@
       <c r="AL61" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AM61" s="16">
+      <c r="AM61" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN61" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AN61" s="17">
+      <c r="AO61" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO61" s="127">
+      <c r="AP61" s="127">
         <f t="shared" si="2"/>
         <v>92.012432012432029</v>
       </c>
-      <c r="AQ61" s="21">
+      <c r="AR61" s="21">
         <v>9</v>
       </c>
-      <c r="AR61" s="73">
+      <c r="AS61" s="73">
         <f t="shared" si="3"/>
         <v>81.818181818181827</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="39" t="s">
         <v>80</v>
       </c>
@@ -14675,27 +14993,30 @@
       <c r="AL62" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AM62" s="16">
+      <c r="AM62" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN62" s="16">
         <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AN62" s="17">
+      <c r="AO62" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO62" s="127">
+      <c r="AP62" s="127">
         <f t="shared" si="2"/>
         <v>56.987456987456973</v>
       </c>
-      <c r="AQ62" s="21">
-        <v>3</v>
-      </c>
-      <c r="AR62" s="73">
+      <c r="AR62" s="21">
+        <v>3</v>
+      </c>
+      <c r="AS62" s="73">
         <f t="shared" si="3"/>
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="38" t="s">
         <v>81</v>
       </c>
@@ -14776,27 +15097,30 @@
       <c r="AL63" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AM63" s="16">
+      <c r="AM63" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN63" s="16">
         <f t="shared" si="4"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="AN63" s="17">
+      <c r="AO63" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AO63" s="127">
+      <c r="AP63" s="127">
         <f t="shared" si="2"/>
         <v>89.860139860139853</v>
       </c>
-      <c r="AQ63" s="21">
+      <c r="AR63" s="21">
         <v>6</v>
       </c>
-      <c r="AR63" s="73">
+      <c r="AS63" s="73">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="82" t="s">
         <v>82</v>
       </c>
@@ -14875,200 +15199,203 @@
       <c r="AL64" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="AM64" s="16">
+      <c r="AM64" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN64" s="16">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AN64" s="17">
+      <c r="AO64" s="17">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="AO64" s="127">
+      <c r="AP64" s="127">
         <f t="shared" si="2"/>
         <v>53.413919413919416</v>
       </c>
-      <c r="AQ64" s="64"/>
-      <c r="AR64" s="73">
+      <c r="AR64" s="64"/>
+      <c r="AS64" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="16:44" x14ac:dyDescent="0.3">
-      <c r="AR65" s="41">
+    <row r="65" spans="16:45" x14ac:dyDescent="0.3">
+      <c r="AS65" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="16:44" x14ac:dyDescent="0.3">
-      <c r="AR66" s="41">
+    <row r="66" spans="16:45" x14ac:dyDescent="0.3">
+      <c r="AS66" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="16:44" x14ac:dyDescent="0.3">
-      <c r="AR67" s="41"/>
-    </row>
-    <row r="68" spans="16:44" x14ac:dyDescent="0.3">
-      <c r="AR68" s="41"/>
-    </row>
-    <row r="69" spans="16:44" x14ac:dyDescent="0.3">
-      <c r="AR69" s="41"/>
-    </row>
-    <row r="70" spans="16:44" x14ac:dyDescent="0.3">
-      <c r="AR70" s="41"/>
-    </row>
-    <row r="71" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="67" spans="16:45" x14ac:dyDescent="0.3">
+      <c r="AS67" s="41"/>
+    </row>
+    <row r="68" spans="16:45" x14ac:dyDescent="0.3">
+      <c r="AS68" s="41"/>
+    </row>
+    <row r="69" spans="16:45" x14ac:dyDescent="0.3">
+      <c r="AS69" s="41"/>
+    </row>
+    <row r="70" spans="16:45" x14ac:dyDescent="0.3">
+      <c r="AS70" s="41"/>
+    </row>
+    <row r="71" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P71" s="41"/>
-      <c r="AR71" s="41"/>
-    </row>
-    <row r="72" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS71" s="41"/>
+    </row>
+    <row r="72" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P72" s="41"/>
-      <c r="AR72" s="41"/>
-    </row>
-    <row r="73" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS72" s="41"/>
+    </row>
+    <row r="73" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P73" s="41"/>
-      <c r="AR73" s="41"/>
-    </row>
-    <row r="74" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS73" s="41"/>
+    </row>
+    <row r="74" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P74" s="41"/>
-      <c r="AR74" s="41"/>
-    </row>
-    <row r="75" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS74" s="41"/>
+    </row>
+    <row r="75" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P75" s="41"/>
-      <c r="AR75" s="41"/>
-    </row>
-    <row r="76" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS75" s="41"/>
+    </row>
+    <row r="76" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P76" s="41"/>
-      <c r="AR76" s="41"/>
-    </row>
-    <row r="77" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS76" s="41"/>
+    </row>
+    <row r="77" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P77" s="41"/>
-      <c r="AR77" s="41"/>
-    </row>
-    <row r="78" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS77" s="41"/>
+    </row>
+    <row r="78" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P78" s="41"/>
-      <c r="AR78" s="41"/>
-    </row>
-    <row r="79" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS78" s="41"/>
+    </row>
+    <row r="79" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P79" s="41"/>
-      <c r="AR79" s="41"/>
-    </row>
-    <row r="80" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS79" s="41"/>
+    </row>
+    <row r="80" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P80" s="41"/>
-      <c r="AR80" s="41"/>
-    </row>
-    <row r="81" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS80" s="41"/>
+    </row>
+    <row r="81" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P81" s="41"/>
-      <c r="AR81" s="41"/>
-    </row>
-    <row r="82" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS81" s="41"/>
+    </row>
+    <row r="82" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P82" s="41"/>
-      <c r="AR82" s="41"/>
-    </row>
-    <row r="83" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS82" s="41"/>
+    </row>
+    <row r="83" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P83" s="41"/>
-      <c r="AR83" s="41"/>
-    </row>
-    <row r="84" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS83" s="41"/>
+    </row>
+    <row r="84" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P84" s="41"/>
-      <c r="AR84" s="41"/>
-    </row>
-    <row r="85" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS84" s="41"/>
+    </row>
+    <row r="85" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P85" s="41"/>
-      <c r="AR85" s="41"/>
-    </row>
-    <row r="86" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS85" s="41"/>
+    </row>
+    <row r="86" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P86" s="41"/>
-      <c r="AR86" s="41"/>
-    </row>
-    <row r="87" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS86" s="41"/>
+    </row>
+    <row r="87" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P87" s="41"/>
-      <c r="AR87" s="41"/>
-    </row>
-    <row r="88" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS87" s="41"/>
+    </row>
+    <row r="88" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P88" s="41"/>
-      <c r="AR88" s="41"/>
-    </row>
-    <row r="89" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS88" s="41"/>
+    </row>
+    <row r="89" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P89" s="41"/>
-      <c r="AR89" s="41"/>
-    </row>
-    <row r="90" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS89" s="41"/>
+    </row>
+    <row r="90" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P90" s="41"/>
-      <c r="AR90" s="41"/>
-    </row>
-    <row r="91" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS90" s="41"/>
+    </row>
+    <row r="91" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P91" s="41"/>
-      <c r="AR91" s="41"/>
-    </row>
-    <row r="92" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS91" s="41"/>
+    </row>
+    <row r="92" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P92" s="41"/>
-      <c r="AR92" s="41"/>
-    </row>
-    <row r="93" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS92" s="41"/>
+    </row>
+    <row r="93" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P93" s="41"/>
-      <c r="AR93" s="41"/>
-    </row>
-    <row r="94" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS93" s="41"/>
+    </row>
+    <row r="94" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P94" s="41"/>
-      <c r="AR94" s="41"/>
-    </row>
-    <row r="95" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS94" s="41"/>
+    </row>
+    <row r="95" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P95" s="41"/>
-      <c r="AR95" s="41"/>
-    </row>
-    <row r="96" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS95" s="41"/>
+    </row>
+    <row r="96" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P96" s="41"/>
-      <c r="AR96" s="41"/>
-    </row>
-    <row r="97" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS96" s="41"/>
+    </row>
+    <row r="97" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P97" s="41"/>
-      <c r="AR97" s="41"/>
-    </row>
-    <row r="98" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS97" s="41"/>
+    </row>
+    <row r="98" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P98" s="41"/>
-      <c r="AR98" s="41"/>
-    </row>
-    <row r="99" spans="16:44" x14ac:dyDescent="0.3">
+      <c r="AS98" s="41"/>
+    </row>
+    <row r="99" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P99" s="41"/>
     </row>
-    <row r="100" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P100" s="41"/>
     </row>
-    <row r="101" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P101" s="41"/>
     </row>
-    <row r="102" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P102" s="41"/>
     </row>
-    <row r="103" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P103" s="41"/>
     </row>
-    <row r="104" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P104" s="41"/>
     </row>
-    <row r="105" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P105" s="41"/>
     </row>
-    <row r="106" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P106" s="41"/>
     </row>
-    <row r="107" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P107" s="41"/>
     </row>
-    <row r="108" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P108" s="41"/>
     </row>
-    <row r="109" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P109" s="41"/>
     </row>
-    <row r="110" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P110" s="41"/>
     </row>
-    <row r="111" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P111" s="41"/>
     </row>
-    <row r="112" spans="16:44" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:45" x14ac:dyDescent="0.3">
       <c r="P112" s="41"/>
     </row>
     <row r="113" spans="16:16" x14ac:dyDescent="0.3">
@@ -15229,7 +15556,7 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
